--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K229"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,47 +441,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Closing Price</t>
+          <t>Closing</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LTV</t>
+          <t>Change</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>%Change</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Max Price</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Min Price</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Opening Price</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>No of Transaction</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Difference Rs.</t>
+          <t>Open</t>
         </is>
       </c>
     </row>
@@ -498,28 +478,16 @@
         <v>1409</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>-1.67</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.67</v>
+        <v>1425</v>
       </c>
       <c r="F2" t="n">
+        <v>1400.1</v>
+      </c>
+      <c r="G2" t="n">
         <v>1425</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1400.1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1425</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-24</v>
       </c>
     </row>
     <row r="3">
@@ -535,28 +503,16 @@
         <v>418</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>-0.62</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.62</v>
+        <v>422</v>
       </c>
       <c r="F3" t="n">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G3" t="n">
-        <v>417</v>
-      </c>
-      <c r="H3" t="n">
         <v>418</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33404</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-2.6</v>
       </c>
     </row>
     <row r="4">
@@ -572,28 +528,16 @@
         <v>995</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>0.71</v>
       </c>
       <c r="E4" t="n">
-        <v>0.71</v>
+        <v>995</v>
       </c>
       <c r="F4" t="n">
         <v>995</v>
       </c>
       <c r="G4" t="n">
         <v>995</v>
-      </c>
-      <c r="H4" t="n">
-        <v>995</v>
-      </c>
-      <c r="I4" t="n">
-        <v>125</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -609,28 +553,16 @@
         <v>599</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="E5" t="n">
-        <v>1.01</v>
+        <v>628.3</v>
       </c>
       <c r="F5" t="n">
-        <v>628.3</v>
+        <v>593</v>
       </c>
       <c r="G5" t="n">
-        <v>593</v>
-      </c>
-      <c r="H5" t="n">
         <v>604.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>900863</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -646,28 +578,16 @@
         <v>734</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>-3.42</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.42</v>
+        <v>750</v>
       </c>
       <c r="F6" t="n">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="G6" t="n">
-        <v>732</v>
-      </c>
-      <c r="H6" t="n">
         <v>745</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7972</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-26</v>
       </c>
     </row>
     <row r="7">
@@ -683,28 +603,16 @@
         <v>321</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>-1.83</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.83</v>
+        <v>327</v>
       </c>
       <c r="F7" t="n">
+        <v>317</v>
+      </c>
+      <c r="G7" t="n">
         <v>327</v>
-      </c>
-      <c r="G7" t="n">
-        <v>317</v>
-      </c>
-      <c r="H7" t="n">
-        <v>327</v>
-      </c>
-      <c r="I7" t="n">
-        <v>105809</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="8">
@@ -720,28 +628,16 @@
         <v>583.2</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>-2.96</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.96</v>
+        <v>601</v>
       </c>
       <c r="F8" t="n">
+        <v>578.2</v>
+      </c>
+      <c r="G8" t="n">
         <v>601</v>
-      </c>
-      <c r="G8" t="n">
-        <v>578.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>601</v>
-      </c>
-      <c r="I8" t="n">
-        <v>245787</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-17.8</v>
       </c>
     </row>
     <row r="9">
@@ -757,28 +653,16 @@
         <v>1576</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>-2.72</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.72</v>
+        <v>1594</v>
       </c>
       <c r="F9" t="n">
-        <v>1594</v>
+        <v>1570</v>
       </c>
       <c r="G9" t="n">
-        <v>1570</v>
-      </c>
-      <c r="H9" t="n">
         <v>1590</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2197</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-44</v>
       </c>
     </row>
     <row r="10">
@@ -794,28 +678,16 @@
         <v>995</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>-0.7</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7</v>
+        <v>1042</v>
       </c>
       <c r="F10" t="n">
-        <v>1042</v>
+        <v>993</v>
       </c>
       <c r="G10" t="n">
-        <v>993</v>
-      </c>
-      <c r="H10" t="n">
         <v>1022</v>
-      </c>
-      <c r="I10" t="n">
-        <v>19045</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-7</v>
       </c>
     </row>
     <row r="11">
@@ -831,28 +703,16 @@
         <v>549</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>-1.44</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.44</v>
+        <v>560</v>
       </c>
       <c r="F11" t="n">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G11" t="n">
-        <v>545</v>
-      </c>
-      <c r="H11" t="n">
         <v>558</v>
-      </c>
-      <c r="I11" t="n">
-        <v>471351</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-8</v>
       </c>
     </row>
     <row r="12">
@@ -868,28 +728,16 @@
         <v>538</v>
       </c>
       <c r="D12" t="n">
-        <v>300</v>
+        <v>-3.06</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.06</v>
+        <v>552</v>
       </c>
       <c r="F12" t="n">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G12" t="n">
-        <v>538</v>
-      </c>
-      <c r="H12" t="n">
         <v>545</v>
-      </c>
-      <c r="I12" t="n">
-        <v>27907</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-17</v>
       </c>
     </row>
     <row r="13">
@@ -905,28 +753,16 @@
         <v>5030</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>-1.95</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.95</v>
+        <v>5330</v>
       </c>
       <c r="F13" t="n">
-        <v>5330</v>
+        <v>5029.1</v>
       </c>
       <c r="G13" t="n">
-        <v>5029.1</v>
-      </c>
-      <c r="H13" t="n">
         <v>5230</v>
-      </c>
-      <c r="I13" t="n">
-        <v>528</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-100</v>
       </c>
     </row>
     <row r="14">
@@ -942,28 +778,16 @@
         <v>508</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>-1.57</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.57</v>
+        <v>514</v>
       </c>
       <c r="F14" t="n">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G14" t="n">
-        <v>504</v>
-      </c>
-      <c r="H14" t="n">
         <v>513</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27430</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-8.1</v>
       </c>
     </row>
     <row r="15">
@@ -979,28 +803,16 @@
         <v>696</v>
       </c>
       <c r="D15" t="n">
-        <v>443</v>
+        <v>-6.45</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.45</v>
+        <v>744</v>
       </c>
       <c r="F15" t="n">
+        <v>673</v>
+      </c>
+      <c r="G15" t="n">
         <v>744</v>
-      </c>
-      <c r="G15" t="n">
-        <v>673</v>
-      </c>
-      <c r="H15" t="n">
-        <v>744</v>
-      </c>
-      <c r="I15" t="n">
-        <v>24660</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-48</v>
       </c>
     </row>
     <row r="16">
@@ -1016,28 +828,16 @@
         <v>14291</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>-1.44</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.44</v>
+        <v>14494.2</v>
       </c>
       <c r="F16" t="n">
-        <v>14494.2</v>
+        <v>14210</v>
       </c>
       <c r="G16" t="n">
         <v>14210</v>
-      </c>
-      <c r="H16" t="n">
-        <v>14210</v>
-      </c>
-      <c r="I16" t="n">
-        <v>184</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-209</v>
       </c>
     </row>
     <row r="17">
@@ -1053,28 +853,16 @@
         <v>1000</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F17" t="n">
         <v>1000</v>
       </c>
       <c r="G17" t="n">
         <v>1000</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I17" t="n">
-        <v>65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +878,16 @@
         <v>291</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>-0.41</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.41</v>
+        <v>295</v>
       </c>
       <c r="F18" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G18" t="n">
-        <v>288</v>
-      </c>
-      <c r="H18" t="n">
         <v>292</v>
-      </c>
-      <c r="I18" t="n">
-        <v>31463</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-1.2</v>
       </c>
     </row>
     <row r="19">
@@ -1127,28 +903,16 @@
         <v>460</v>
       </c>
       <c r="D19" t="n">
-        <v>150</v>
+        <v>-0.15</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.15</v>
+        <v>468</v>
       </c>
       <c r="F19" t="n">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G19" t="n">
         <v>455</v>
-      </c>
-      <c r="H19" t="n">
-        <v>455</v>
-      </c>
-      <c r="I19" t="n">
-        <v>38775</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-0.7</v>
       </c>
     </row>
     <row r="20">
@@ -1164,28 +928,16 @@
         <v>1334</v>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>-1.91</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.91</v>
+        <v>1360</v>
       </c>
       <c r="F20" t="n">
+        <v>1330</v>
+      </c>
+      <c r="G20" t="n">
         <v>1360</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1330</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1360</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11582</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-26</v>
       </c>
     </row>
     <row r="21">
@@ -1201,28 +953,16 @@
         <v>254.3</v>
       </c>
       <c r="D21" t="n">
-        <v>158</v>
+        <v>-2.04</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.04</v>
+        <v>260</v>
       </c>
       <c r="F21" t="n">
-        <v>260</v>
+        <v>254.2</v>
       </c>
       <c r="G21" t="n">
-        <v>254.2</v>
-      </c>
-      <c r="H21" t="n">
         <v>257.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>84500</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-5.3</v>
       </c>
     </row>
     <row r="22">
@@ -1238,28 +978,16 @@
         <v>254</v>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>-0.97</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.97</v>
+        <v>257</v>
       </c>
       <c r="F22" t="n">
-        <v>257</v>
+        <v>251.4</v>
       </c>
       <c r="G22" t="n">
-        <v>251.4</v>
-      </c>
-      <c r="H22" t="n">
         <v>256</v>
-      </c>
-      <c r="I22" t="n">
-        <v>33208</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-2.5</v>
       </c>
     </row>
     <row r="23">
@@ -1275,28 +1003,16 @@
         <v>486</v>
       </c>
       <c r="D23" t="n">
-        <v>200</v>
+        <v>-2.8</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.8</v>
+        <v>499.8</v>
       </c>
       <c r="F23" t="n">
-        <v>499.8</v>
+        <v>475</v>
       </c>
       <c r="G23" t="n">
-        <v>475</v>
-      </c>
-      <c r="H23" t="n">
         <v>490</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24597</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-14</v>
       </c>
     </row>
     <row r="24">
@@ -1312,28 +1028,16 @@
         <v>1420</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>-0.42</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.42</v>
+        <v>1448</v>
       </c>
       <c r="F24" t="n">
-        <v>1448</v>
+        <v>1405</v>
       </c>
       <c r="G24" t="n">
         <v>1405</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1405</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4010</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="25">
@@ -1349,28 +1053,16 @@
         <v>523</v>
       </c>
       <c r="D25" t="n">
-        <v>200</v>
+        <v>-0.76</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.76</v>
+        <v>530</v>
       </c>
       <c r="F25" t="n">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G25" t="n">
-        <v>520</v>
-      </c>
-      <c r="H25" t="n">
         <v>523</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14154</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-4</v>
       </c>
     </row>
     <row r="26">
@@ -1386,28 +1078,16 @@
         <v>1075</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>-4.19</v>
       </c>
       <c r="E26" t="n">
-        <v>-4.19</v>
+        <v>1110</v>
       </c>
       <c r="F26" t="n">
-        <v>1110</v>
+        <v>1071.1</v>
       </c>
       <c r="G26" t="n">
-        <v>1071.1</v>
-      </c>
-      <c r="H26" t="n">
         <v>1100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>34077</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-47</v>
       </c>
     </row>
     <row r="27">
@@ -1423,28 +1103,16 @@
         <v>490.5</v>
       </c>
       <c r="D27" t="n">
-        <v>780</v>
+        <v>-4.39</v>
       </c>
       <c r="E27" t="n">
-        <v>-4.39</v>
+        <v>513</v>
       </c>
       <c r="F27" t="n">
+        <v>489</v>
+      </c>
+      <c r="G27" t="n">
         <v>513</v>
-      </c>
-      <c r="G27" t="n">
-        <v>489</v>
-      </c>
-      <c r="H27" t="n">
-        <v>513</v>
-      </c>
-      <c r="I27" t="n">
-        <v>55646</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-22.5</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1128,16 @@
         <v>3365</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>-1.32</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.32</v>
+        <v>3415</v>
       </c>
       <c r="F28" t="n">
-        <v>3415</v>
+        <v>3355</v>
       </c>
       <c r="G28" t="n">
-        <v>3355</v>
-      </c>
-      <c r="H28" t="n">
         <v>3390</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6812</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-45</v>
       </c>
     </row>
     <row r="29">
@@ -1497,28 +1153,16 @@
         <v>1100</v>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>-1.79</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.79</v>
+        <v>1116</v>
       </c>
       <c r="F29" t="n">
-        <v>1116</v>
+        <v>1090</v>
       </c>
       <c r="G29" t="n">
-        <v>1090</v>
-      </c>
-      <c r="H29" t="n">
         <v>1115</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2053</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="30">
@@ -1534,28 +1178,16 @@
         <v>10.13</v>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="F30" t="n">
-        <v>10.33</v>
+        <v>10.13</v>
       </c>
       <c r="G30" t="n">
         <v>10.13</v>
-      </c>
-      <c r="H30" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="I30" t="n">
-        <v>18850</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1571,28 +1203,16 @@
         <v>10.55</v>
       </c>
       <c r="D31" t="n">
-        <v>100</v>
+        <v>1.83</v>
       </c>
       <c r="E31" t="n">
-        <v>1.83</v>
+        <v>10.55</v>
       </c>
       <c r="F31" t="n">
-        <v>10.55</v>
+        <v>10.22</v>
       </c>
       <c r="G31" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="H31" t="n">
         <v>10.36</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5600</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.19</v>
       </c>
     </row>
     <row r="32">
@@ -1608,28 +1228,16 @@
         <v>590</v>
       </c>
       <c r="D32" t="n">
-        <v>55</v>
+        <v>-1.86</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.86</v>
+        <v>606</v>
       </c>
       <c r="F32" t="n">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G32" t="n">
-        <v>590</v>
-      </c>
-      <c r="H32" t="n">
         <v>601</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4341</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-11.2</v>
       </c>
     </row>
     <row r="33">
@@ -1645,28 +1253,16 @@
         <v>293</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>-2.01</v>
       </c>
       <c r="E33" t="n">
-        <v>-2.01</v>
+        <v>299</v>
       </c>
       <c r="F33" t="n">
+        <v>291.6</v>
+      </c>
+      <c r="G33" t="n">
         <v>299</v>
-      </c>
-      <c r="G33" t="n">
-        <v>291.6</v>
-      </c>
-      <c r="H33" t="n">
-        <v>299</v>
-      </c>
-      <c r="I33" t="n">
-        <v>52818</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="34">
@@ -1682,28 +1278,16 @@
         <v>1270</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>-1.55</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.55</v>
+        <v>1290</v>
       </c>
       <c r="F34" t="n">
-        <v>1290</v>
+        <v>1265</v>
       </c>
       <c r="G34" t="n">
-        <v>1265</v>
-      </c>
-      <c r="H34" t="n">
         <v>1284</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7389</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="35">
@@ -1719,28 +1303,16 @@
         <v>316</v>
       </c>
       <c r="D35" t="n">
-        <v>250</v>
+        <v>-2.17</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.17</v>
+        <v>320</v>
       </c>
       <c r="F35" t="n">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G35" t="n">
-        <v>314</v>
-      </c>
-      <c r="H35" t="n">
         <v>317</v>
-      </c>
-      <c r="I35" t="n">
-        <v>20669</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-7</v>
       </c>
     </row>
     <row r="36">
@@ -1756,28 +1328,16 @@
         <v>580</v>
       </c>
       <c r="D36" t="n">
-        <v>50</v>
+        <v>-0.85</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.85</v>
+        <v>585</v>
       </c>
       <c r="F36" t="n">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G36" t="n">
-        <v>578</v>
-      </c>
-      <c r="H36" t="n">
         <v>583</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9840</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-5</v>
       </c>
     </row>
     <row r="37">
@@ -1793,28 +1353,16 @@
         <v>548.9</v>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>-2.61</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.61</v>
+        <v>565</v>
       </c>
       <c r="F37" t="n">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="G37" t="n">
-        <v>545</v>
-      </c>
-      <c r="H37" t="n">
         <v>564</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11925</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-14.7</v>
       </c>
     </row>
     <row r="38">
@@ -1830,28 +1378,16 @@
         <v>713</v>
       </c>
       <c r="D38" t="n">
-        <v>330</v>
+        <v>-3.39</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.39</v>
+        <v>725</v>
       </c>
       <c r="F38" t="n">
+        <v>712</v>
+      </c>
+      <c r="G38" t="n">
         <v>725</v>
-      </c>
-      <c r="G38" t="n">
-        <v>712</v>
-      </c>
-      <c r="H38" t="n">
-        <v>725</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5270</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-25</v>
       </c>
     </row>
     <row r="39">
@@ -1867,28 +1403,16 @@
         <v>446</v>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>-1.2</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.2</v>
+        <v>478.3</v>
       </c>
       <c r="F39" t="n">
-        <v>478.3</v>
+        <v>443.3</v>
       </c>
       <c r="G39" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="H39" t="n">
         <v>459</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2809</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-5.4</v>
       </c>
     </row>
     <row r="40">
@@ -1904,28 +1428,16 @@
         <v>867</v>
       </c>
       <c r="D40" t="n">
-        <v>47</v>
+        <v>-1.7</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.7</v>
+        <v>880</v>
       </c>
       <c r="F40" t="n">
-        <v>880</v>
+        <v>862.4</v>
       </c>
       <c r="G40" t="n">
-        <v>862.4</v>
-      </c>
-      <c r="H40" t="n">
         <v>877</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13338</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-15</v>
       </c>
     </row>
     <row r="41">
@@ -1941,28 +1453,16 @@
         <v>2456</v>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>-1.37</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.37</v>
+        <v>2500</v>
       </c>
       <c r="F41" t="n">
-        <v>2500</v>
+        <v>2440</v>
       </c>
       <c r="G41" t="n">
-        <v>2440</v>
-      </c>
-      <c r="H41" t="n">
         <v>2455</v>
-      </c>
-      <c r="I41" t="n">
-        <v>27008</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-34</v>
       </c>
     </row>
     <row r="42">
@@ -1978,28 +1478,16 @@
         <v>602</v>
       </c>
       <c r="D42" t="n">
-        <v>139</v>
+        <v>-2.11</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.11</v>
+        <v>613</v>
       </c>
       <c r="F42" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="G42" t="n">
-        <v>601</v>
-      </c>
-      <c r="H42" t="n">
         <v>610</v>
-      </c>
-      <c r="I42" t="n">
-        <v>68105</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-13</v>
       </c>
     </row>
     <row r="43">
@@ -2015,28 +1503,16 @@
         <v>359</v>
       </c>
       <c r="D43" t="n">
-        <v>16</v>
+        <v>-1.1</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.1</v>
+        <v>361</v>
       </c>
       <c r="F43" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G43" t="n">
-        <v>355</v>
-      </c>
-      <c r="H43" t="n">
         <v>359</v>
-      </c>
-      <c r="I43" t="n">
-        <v>107445</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-4</v>
       </c>
     </row>
     <row r="44">
@@ -2052,28 +1528,16 @@
         <v>1047</v>
       </c>
       <c r="D44" t="n">
-        <v>50</v>
+        <v>-2.2</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.2</v>
+        <v>1066</v>
       </c>
       <c r="F44" t="n">
-        <v>1066</v>
+        <v>1035</v>
       </c>
       <c r="G44" t="n">
-        <v>1035</v>
-      </c>
-      <c r="H44" t="n">
         <v>1050</v>
-      </c>
-      <c r="I44" t="n">
-        <v>20142</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-23.5</v>
       </c>
     </row>
     <row r="45">
@@ -2089,28 +1553,16 @@
         <v>679.5</v>
       </c>
       <c r="D45" t="n">
-        <v>203</v>
+        <v>-3.07</v>
       </c>
       <c r="E45" t="n">
-        <v>-3.07</v>
+        <v>700</v>
       </c>
       <c r="F45" t="n">
-        <v>700</v>
+        <v>679.5</v>
       </c>
       <c r="G45" t="n">
-        <v>679.5</v>
-      </c>
-      <c r="H45" t="n">
         <v>688.5</v>
-      </c>
-      <c r="I45" t="n">
-        <v>16335</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-21.5</v>
       </c>
     </row>
     <row r="46">
@@ -2126,28 +1578,16 @@
         <v>340</v>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>-2.88</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.88</v>
+        <v>358</v>
       </c>
       <c r="F46" t="n">
-        <v>358</v>
+        <v>337.2</v>
       </c>
       <c r="G46" t="n">
-        <v>337.2</v>
-      </c>
-      <c r="H46" t="n">
         <v>351</v>
-      </c>
-      <c r="I46" t="n">
-        <v>51382</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-10.1</v>
       </c>
     </row>
     <row r="47">
@@ -2163,28 +1603,16 @@
         <v>651</v>
       </c>
       <c r="D47" t="n">
-        <v>40</v>
+        <v>-2.15</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.15</v>
+        <v>660</v>
       </c>
       <c r="F47" t="n">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G47" t="n">
-        <v>650</v>
-      </c>
-      <c r="H47" t="n">
         <v>653.1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4511</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-14.3</v>
       </c>
     </row>
     <row r="48">
@@ -2200,28 +1628,16 @@
         <v>1737</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>-1.59</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.59</v>
+        <v>1779</v>
       </c>
       <c r="F48" t="n">
-        <v>1779</v>
+        <v>1710</v>
       </c>
       <c r="G48" t="n">
-        <v>1710</v>
-      </c>
-      <c r="H48" t="n">
         <v>1730</v>
-      </c>
-      <c r="I48" t="n">
-        <v>988</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-28</v>
       </c>
     </row>
     <row r="49">
@@ -2237,28 +1653,16 @@
         <v>12.07</v>
       </c>
       <c r="D49" t="n">
-        <v>1100</v>
+        <v>-0.25</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.25</v>
+        <v>12.34</v>
       </c>
       <c r="F49" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="G49" t="n">
         <v>12.34</v>
-      </c>
-      <c r="G49" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="H49" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="I49" t="n">
-        <v>73745</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-0.03</v>
       </c>
     </row>
     <row r="50">
@@ -2274,28 +1678,16 @@
         <v>1325</v>
       </c>
       <c r="D50" t="n">
-        <v>23</v>
+        <v>-3.64</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.64</v>
+        <v>1379</v>
       </c>
       <c r="F50" t="n">
-        <v>1379</v>
+        <v>1325</v>
       </c>
       <c r="G50" t="n">
-        <v>1325</v>
-      </c>
-      <c r="H50" t="n">
         <v>1370</v>
-      </c>
-      <c r="I50" t="n">
-        <v>980</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-50</v>
       </c>
     </row>
     <row r="51">
@@ -2311,28 +1703,16 @@
         <v>505</v>
       </c>
       <c r="D51" t="n">
-        <v>11</v>
+        <v>-1.08</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.08</v>
+        <v>510</v>
       </c>
       <c r="F51" t="n">
-        <v>510</v>
+        <v>495.1</v>
       </c>
       <c r="G51" t="n">
-        <v>495.1</v>
-      </c>
-      <c r="H51" t="n">
         <v>501</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16499</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-5.5</v>
       </c>
     </row>
     <row r="52">
@@ -2348,28 +1728,16 @@
         <v>676.9</v>
       </c>
       <c r="D52" t="n">
-        <v>680</v>
+        <v>-2.6</v>
       </c>
       <c r="E52" t="n">
-        <v>-2.6</v>
+        <v>707.5</v>
       </c>
       <c r="F52" t="n">
+        <v>676.6</v>
+      </c>
+      <c r="G52" t="n">
         <v>707.5</v>
-      </c>
-      <c r="G52" t="n">
-        <v>676.6</v>
-      </c>
-      <c r="H52" t="n">
-        <v>707.5</v>
-      </c>
-      <c r="I52" t="n">
-        <v>34761</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-18.1</v>
       </c>
     </row>
     <row r="53">
@@ -2385,28 +1753,16 @@
         <v>1350</v>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>-1.1</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.1</v>
+        <v>1370</v>
       </c>
       <c r="F53" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G53" t="n">
         <v>1370</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1350</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1370</v>
-      </c>
-      <c r="I53" t="n">
-        <v>110</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-15</v>
       </c>
     </row>
     <row r="54">
@@ -2422,28 +1778,16 @@
         <v>480</v>
       </c>
       <c r="D54" t="n">
-        <v>300</v>
+        <v>-4</v>
       </c>
       <c r="E54" t="n">
-        <v>-4</v>
+        <v>510</v>
       </c>
       <c r="F54" t="n">
+        <v>479.2</v>
+      </c>
+      <c r="G54" t="n">
         <v>510</v>
-      </c>
-      <c r="G54" t="n">
-        <v>479.2</v>
-      </c>
-      <c r="H54" t="n">
-        <v>510</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9103</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="55">
@@ -2459,28 +1803,16 @@
         <v>376</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>-3.09</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.09</v>
+        <v>394.9</v>
       </c>
       <c r="F55" t="n">
+        <v>372.4</v>
+      </c>
+      <c r="G55" t="n">
         <v>394.9</v>
-      </c>
-      <c r="G55" t="n">
-        <v>372.4</v>
-      </c>
-      <c r="H55" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8528</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-12</v>
       </c>
     </row>
     <row r="56">
@@ -2496,28 +1828,16 @@
         <v>773.8</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>-0.54</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.54</v>
+        <v>778</v>
       </c>
       <c r="F56" t="n">
+        <v>764</v>
+      </c>
+      <c r="G56" t="n">
         <v>778</v>
-      </c>
-      <c r="G56" t="n">
-        <v>764</v>
-      </c>
-      <c r="H56" t="n">
-        <v>778</v>
-      </c>
-      <c r="I56" t="n">
-        <v>42550</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-4.2</v>
       </c>
     </row>
     <row r="57">
@@ -2533,28 +1853,16 @@
         <v>1101</v>
       </c>
       <c r="D57" t="n">
-        <v>150</v>
+        <v>-0.36</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.36</v>
+        <v>1105</v>
       </c>
       <c r="F57" t="n">
+        <v>1101</v>
+      </c>
+      <c r="G57" t="n">
         <v>1105</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1101</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1105</v>
-      </c>
-      <c r="I57" t="n">
-        <v>400</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-4</v>
       </c>
     </row>
     <row r="58">
@@ -2570,28 +1878,16 @@
         <v>354</v>
       </c>
       <c r="D58" t="n">
-        <v>307</v>
+        <v>-1.67</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.67</v>
+        <v>367.2</v>
       </c>
       <c r="F58" t="n">
+        <v>347.1</v>
+      </c>
+      <c r="G58" t="n">
         <v>367.2</v>
-      </c>
-      <c r="G58" t="n">
-        <v>347.1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>367.2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>115962</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="59">
@@ -2607,28 +1903,16 @@
         <v>4650</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>-1.73</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.73</v>
+        <v>4750</v>
       </c>
       <c r="F59" t="n">
+        <v>4650</v>
+      </c>
+      <c r="G59" t="n">
         <v>4750</v>
-      </c>
-      <c r="G59" t="n">
-        <v>4650</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4750</v>
-      </c>
-      <c r="I59" t="n">
-        <v>12822</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-82</v>
       </c>
     </row>
     <row r="60">
@@ -2644,28 +1928,16 @@
         <v>760</v>
       </c>
       <c r="D60" t="n">
-        <v>100</v>
+        <v>-1.92</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.92</v>
+        <v>778.9</v>
       </c>
       <c r="F60" t="n">
-        <v>778.9</v>
+        <v>744</v>
       </c>
       <c r="G60" t="n">
-        <v>744</v>
-      </c>
-      <c r="H60" t="n">
         <v>775</v>
-      </c>
-      <c r="I60" t="n">
-        <v>25510</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-14.9</v>
       </c>
     </row>
     <row r="61">
@@ -2681,28 +1953,16 @@
         <v>336.9</v>
       </c>
       <c r="D61" t="n">
-        <v>140</v>
+        <v>-3.74</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.74</v>
+        <v>355</v>
       </c>
       <c r="F61" t="n">
+        <v>336</v>
+      </c>
+      <c r="G61" t="n">
         <v>355</v>
-      </c>
-      <c r="G61" t="n">
-        <v>336</v>
-      </c>
-      <c r="H61" t="n">
-        <v>355</v>
-      </c>
-      <c r="I61" t="n">
-        <v>601352</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-13.1</v>
       </c>
     </row>
     <row r="62">
@@ -2718,28 +1978,16 @@
         <v>509</v>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>-1.57</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.57</v>
+        <v>519</v>
       </c>
       <c r="F62" t="n">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="G62" t="n">
-        <v>501</v>
-      </c>
-      <c r="H62" t="n">
         <v>510</v>
-      </c>
-      <c r="I62" t="n">
-        <v>24220</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-8.1</v>
       </c>
     </row>
     <row r="63">
@@ -2755,28 +2003,16 @@
         <v>531.3</v>
       </c>
       <c r="D63" t="n">
-        <v>130</v>
+        <v>-4.24</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.24</v>
+        <v>545.7</v>
       </c>
       <c r="F63" t="n">
-        <v>545.7</v>
+        <v>531</v>
       </c>
       <c r="G63" t="n">
-        <v>531</v>
-      </c>
-      <c r="H63" t="n">
         <v>543.8</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13551</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-23.5</v>
       </c>
     </row>
     <row r="64">
@@ -2792,28 +2028,16 @@
         <v>713</v>
       </c>
       <c r="D64" t="n">
-        <v>100</v>
+        <v>-2.6</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.6</v>
+        <v>732</v>
       </c>
       <c r="F64" t="n">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="G64" t="n">
-        <v>712</v>
-      </c>
-      <c r="H64" t="n">
         <v>725</v>
-      </c>
-      <c r="I64" t="n">
-        <v>63071</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-19</v>
       </c>
     </row>
     <row r="65">
@@ -2829,28 +2053,16 @@
         <v>1105</v>
       </c>
       <c r="D65" t="n">
-        <v>125</v>
+        <v>0.36</v>
       </c>
       <c r="E65" t="n">
-        <v>0.36</v>
+        <v>1105</v>
       </c>
       <c r="F65" t="n">
         <v>1105</v>
       </c>
       <c r="G65" t="n">
         <v>1105</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1105</v>
-      </c>
-      <c r="I65" t="n">
-        <v>125</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -2866,28 +2078,16 @@
         <v>1149</v>
       </c>
       <c r="D66" t="n">
-        <v>50</v>
+        <v>-0.95</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.95</v>
+        <v>1180</v>
       </c>
       <c r="F66" t="n">
+        <v>1140</v>
+      </c>
+      <c r="G66" t="n">
         <v>1180</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1140</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1180</v>
-      </c>
-      <c r="I66" t="n">
-        <v>74875</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-11</v>
       </c>
     </row>
     <row r="67">
@@ -2903,28 +2103,16 @@
         <v>1390</v>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>-1.84</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.84</v>
+        <v>1411.5</v>
       </c>
       <c r="F67" t="n">
-        <v>1411.5</v>
+        <v>1375.1</v>
       </c>
       <c r="G67" t="n">
-        <v>1375.1</v>
-      </c>
-      <c r="H67" t="n">
         <v>1410</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3250</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-26</v>
       </c>
     </row>
     <row r="68">
@@ -2940,28 +2128,16 @@
         <v>436.3</v>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
+        <v>-2.39</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.39</v>
+        <v>450</v>
       </c>
       <c r="F68" t="n">
-        <v>450</v>
+        <v>436.3</v>
       </c>
       <c r="G68" t="n">
-        <v>436.3</v>
-      </c>
-      <c r="H68" t="n">
         <v>447</v>
-      </c>
-      <c r="I68" t="n">
-        <v>84569</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-10.7</v>
       </c>
     </row>
     <row r="69">
@@ -2977,28 +2153,16 @@
         <v>4681</v>
       </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>-1.76</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.76</v>
+        <v>4721</v>
       </c>
       <c r="F69" t="n">
-        <v>4721</v>
+        <v>4651</v>
       </c>
       <c r="G69" t="n">
-        <v>4651</v>
-      </c>
-      <c r="H69" t="n">
         <v>4700</v>
-      </c>
-      <c r="I69" t="n">
-        <v>13520</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-84</v>
       </c>
     </row>
     <row r="70">
@@ -3014,28 +2178,16 @@
         <v>677.1</v>
       </c>
       <c r="D70" t="n">
-        <v>31</v>
+        <v>-2.15</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.15</v>
+        <v>696</v>
       </c>
       <c r="F70" t="n">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="G70" t="n">
-        <v>675</v>
-      </c>
-      <c r="H70" t="n">
         <v>695</v>
-      </c>
-      <c r="I70" t="n">
-        <v>45156</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-14.9</v>
       </c>
     </row>
     <row r="71">
@@ -3051,28 +2203,16 @@
         <v>715</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>-0.97</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.97</v>
+        <v>735</v>
       </c>
       <c r="F71" t="n">
-        <v>735</v>
+        <v>708.3</v>
       </c>
       <c r="G71" t="n">
-        <v>708.3</v>
-      </c>
-      <c r="H71" t="n">
         <v>722</v>
-      </c>
-      <c r="I71" t="n">
-        <v>34492</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-7</v>
       </c>
     </row>
     <row r="72">
@@ -3088,28 +2228,16 @@
         <v>325</v>
       </c>
       <c r="D72" t="n">
-        <v>230</v>
+        <v>-2.69</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.69</v>
+        <v>334</v>
       </c>
       <c r="F72" t="n">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G72" t="n">
-        <v>323</v>
-      </c>
-      <c r="H72" t="n">
         <v>333.9</v>
-      </c>
-      <c r="I72" t="n">
-        <v>39117</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-9</v>
       </c>
     </row>
     <row r="73">
@@ -3125,28 +2253,16 @@
         <v>2460</v>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>-1.4</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.4</v>
+        <v>2529</v>
       </c>
       <c r="F73" t="n">
+        <v>2456</v>
+      </c>
+      <c r="G73" t="n">
         <v>2529</v>
-      </c>
-      <c r="G73" t="n">
-        <v>2456</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2529</v>
-      </c>
-      <c r="I73" t="n">
-        <v>623</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-35</v>
       </c>
     </row>
     <row r="74">
@@ -3162,28 +2278,16 @@
         <v>259.5</v>
       </c>
       <c r="D74" t="n">
-        <v>50</v>
+        <v>-1.33</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.33</v>
+        <v>262</v>
       </c>
       <c r="F74" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G74" t="n">
-        <v>257</v>
-      </c>
-      <c r="H74" t="n">
         <v>261</v>
-      </c>
-      <c r="I74" t="n">
-        <v>86540</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-3.5</v>
       </c>
     </row>
     <row r="75">
@@ -3199,28 +2303,16 @@
         <v>146.1</v>
       </c>
       <c r="D75" t="n">
-        <v>24000</v>
+        <v>-1.95</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.95</v>
+        <v>149</v>
       </c>
       <c r="F75" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="G75" t="n">
         <v>149</v>
-      </c>
-      <c r="G75" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>149</v>
-      </c>
-      <c r="I75" t="n">
-        <v>124000</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-2.9</v>
       </c>
     </row>
     <row r="76">
@@ -3236,28 +2328,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>100</v>
+        <v>0.54</v>
       </c>
       <c r="E76" t="n">
-        <v>0.54</v>
+        <v>9.35</v>
       </c>
       <c r="F76" t="n">
-        <v>9.35</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="G76" t="n">
         <v>9.119999999999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="I76" t="n">
-        <v>12500</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="77">
@@ -3273,28 +2353,16 @@
         <v>323</v>
       </c>
       <c r="D77" t="n">
-        <v>123</v>
+        <v>-3.58</v>
       </c>
       <c r="E77" t="n">
-        <v>-3.58</v>
+        <v>334.9</v>
       </c>
       <c r="F77" t="n">
+        <v>323</v>
+      </c>
+      <c r="G77" t="n">
         <v>334.9</v>
-      </c>
-      <c r="G77" t="n">
-        <v>323</v>
-      </c>
-      <c r="H77" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="I77" t="n">
-        <v>21191</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-12</v>
       </c>
     </row>
     <row r="78">
@@ -3310,28 +2378,16 @@
         <v>1695</v>
       </c>
       <c r="D78" t="n">
-        <v>12</v>
+        <v>-0.29</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.29</v>
+        <v>1728</v>
       </c>
       <c r="F78" t="n">
-        <v>1728</v>
+        <v>1662</v>
       </c>
       <c r="G78" t="n">
-        <v>1662</v>
-      </c>
-      <c r="H78" t="n">
         <v>1725</v>
-      </c>
-      <c r="I78" t="n">
-        <v>783</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-5</v>
       </c>
     </row>
     <row r="79">
@@ -3347,28 +2403,16 @@
         <v>1319.1</v>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>-1.12</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.12</v>
+        <v>1339</v>
       </c>
       <c r="F79" t="n">
-        <v>1339</v>
+        <v>1309</v>
       </c>
       <c r="G79" t="n">
-        <v>1309</v>
-      </c>
-      <c r="H79" t="n">
         <v>1334</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2693</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-14.9</v>
       </c>
     </row>
     <row r="80">
@@ -3384,28 +2428,16 @@
         <v>540</v>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>-1.44</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.44</v>
+        <v>557.9</v>
       </c>
       <c r="F80" t="n">
+        <v>535</v>
+      </c>
+      <c r="G80" t="n">
         <v>557.9</v>
-      </c>
-      <c r="G80" t="n">
-        <v>535</v>
-      </c>
-      <c r="H80" t="n">
-        <v>557.9</v>
-      </c>
-      <c r="I80" t="n">
-        <v>11640</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-7.9</v>
       </c>
     </row>
     <row r="81">
@@ -3421,28 +2453,16 @@
         <v>432.1</v>
       </c>
       <c r="D81" t="n">
-        <v>100</v>
+        <v>-2.9</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.9</v>
+        <v>448</v>
       </c>
       <c r="F81" t="n">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="G81" t="n">
-        <v>432</v>
-      </c>
-      <c r="H81" t="n">
         <v>444</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9607</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-12.9</v>
       </c>
     </row>
     <row r="82">
@@ -3458,28 +2478,16 @@
         <v>530.1</v>
       </c>
       <c r="D82" t="n">
-        <v>50</v>
+        <v>-1.65</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.65</v>
+        <v>544</v>
       </c>
       <c r="F82" t="n">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G82" t="n">
-        <v>529</v>
-      </c>
-      <c r="H82" t="n">
         <v>530</v>
-      </c>
-      <c r="I82" t="n">
-        <v>51915</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-8.9</v>
       </c>
     </row>
     <row r="83">
@@ -3495,28 +2503,16 @@
         <v>526</v>
       </c>
       <c r="D83" t="n">
-        <v>200</v>
+        <v>-2.23</v>
       </c>
       <c r="E83" t="n">
-        <v>-2.23</v>
+        <v>540</v>
       </c>
       <c r="F83" t="n">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="G83" t="n">
-        <v>524</v>
-      </c>
-      <c r="H83" t="n">
         <v>535</v>
-      </c>
-      <c r="I83" t="n">
-        <v>52516</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-12</v>
       </c>
     </row>
     <row r="84">
@@ -3532,28 +2528,16 @@
         <v>292</v>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
+        <v>-1.68</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.68</v>
+        <v>296.5</v>
       </c>
       <c r="F84" t="n">
-        <v>296.5</v>
+        <v>290.1</v>
       </c>
       <c r="G84" t="n">
-        <v>290.1</v>
-      </c>
-      <c r="H84" t="n">
         <v>292</v>
-      </c>
-      <c r="I84" t="n">
-        <v>18883</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-5</v>
       </c>
     </row>
     <row r="85">
@@ -3569,28 +2553,16 @@
         <v>410</v>
       </c>
       <c r="D85" t="n">
-        <v>200</v>
+        <v>-3.85</v>
       </c>
       <c r="E85" t="n">
-        <v>-3.85</v>
+        <v>422</v>
       </c>
       <c r="F85" t="n">
-        <v>422</v>
+        <v>408.6</v>
       </c>
       <c r="G85" t="n">
-        <v>408.6</v>
-      </c>
-      <c r="H85" t="n">
         <v>417.9</v>
-      </c>
-      <c r="I85" t="n">
-        <v>53176</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-16.4</v>
       </c>
     </row>
     <row r="86">
@@ -3606,28 +2578,16 @@
         <v>10.7</v>
       </c>
       <c r="D86" t="n">
-        <v>500</v>
+        <v>0.47</v>
       </c>
       <c r="E86" t="n">
-        <v>0.47</v>
+        <v>10.7</v>
       </c>
       <c r="F86" t="n">
-        <v>10.7</v>
+        <v>10.44</v>
       </c>
       <c r="G86" t="n">
         <v>10.44</v>
-      </c>
-      <c r="H86" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44850</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="87">
@@ -3643,28 +2603,16 @@
         <v>766</v>
       </c>
       <c r="D87" t="n">
-        <v>15</v>
+        <v>-1.54</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.54</v>
+        <v>782</v>
       </c>
       <c r="F87" t="n">
-        <v>782</v>
+        <v>765.4</v>
       </c>
       <c r="G87" t="n">
-        <v>765.4</v>
-      </c>
-      <c r="H87" t="n">
         <v>775</v>
-      </c>
-      <c r="I87" t="n">
-        <v>13317</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-12</v>
       </c>
     </row>
     <row r="88">
@@ -3680,28 +2628,16 @@
         <v>2332</v>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>-1.89</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.89</v>
+        <v>2400</v>
       </c>
       <c r="F88" t="n">
+        <v>2315</v>
+      </c>
+      <c r="G88" t="n">
         <v>2400</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2315</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2400</v>
-      </c>
-      <c r="I88" t="n">
-        <v>22134</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-45</v>
       </c>
     </row>
     <row r="89">
@@ -3717,28 +2653,16 @@
         <v>1573</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.9399999999999999</v>
+        <v>1574</v>
       </c>
       <c r="F89" t="n">
-        <v>1574</v>
+        <v>1551</v>
       </c>
       <c r="G89" t="n">
-        <v>1551</v>
-      </c>
-      <c r="H89" t="n">
         <v>1561</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1304</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-15</v>
       </c>
     </row>
     <row r="90">
@@ -3754,28 +2678,16 @@
         <v>10.37</v>
       </c>
       <c r="D90" t="n">
-        <v>20000</v>
+        <v>-0.29</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.29</v>
+        <v>10.38</v>
       </c>
       <c r="F90" t="n">
-        <v>10.38</v>
+        <v>10.09</v>
       </c>
       <c r="G90" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="H90" t="n">
         <v>10.26</v>
-      </c>
-      <c r="I90" t="n">
-        <v>106200</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-0.03</v>
       </c>
     </row>
     <row r="91">
@@ -3791,28 +2703,16 @@
         <v>445.8</v>
       </c>
       <c r="D91" t="n">
-        <v>110</v>
+        <v>-1.15</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.15</v>
+        <v>452.1</v>
       </c>
       <c r="F91" t="n">
-        <v>452.1</v>
+        <v>445</v>
       </c>
       <c r="G91" t="n">
-        <v>445</v>
-      </c>
-      <c r="H91" t="n">
         <v>450</v>
-      </c>
-      <c r="I91" t="n">
-        <v>34341</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-5.2</v>
       </c>
     </row>
     <row r="92">
@@ -3828,28 +2728,16 @@
         <v>320.1</v>
       </c>
       <c r="D92" t="n">
-        <v>100</v>
+        <v>-1.51</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.51</v>
+        <v>327</v>
       </c>
       <c r="F92" t="n">
-        <v>327</v>
+        <v>318.1</v>
       </c>
       <c r="G92" t="n">
-        <v>318.1</v>
-      </c>
-      <c r="H92" t="n">
         <v>324.1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>48184</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-4.9</v>
       </c>
     </row>
     <row r="93">
@@ -3865,28 +2753,16 @@
         <v>546</v>
       </c>
       <c r="D93" t="n">
-        <v>80</v>
+        <v>-2.33</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.33</v>
+        <v>559</v>
       </c>
       <c r="F93" t="n">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G93" t="n">
-        <v>545</v>
-      </c>
-      <c r="H93" t="n">
         <v>548</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6763</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-13</v>
       </c>
     </row>
     <row r="94">
@@ -3902,28 +2778,16 @@
         <v>291</v>
       </c>
       <c r="D94" t="n">
-        <v>424</v>
+        <v>-1.69</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.69</v>
+        <v>295</v>
       </c>
       <c r="F94" t="n">
-        <v>295</v>
+        <v>289.2</v>
       </c>
       <c r="G94" t="n">
-        <v>289.2</v>
-      </c>
-      <c r="H94" t="n">
         <v>292</v>
-      </c>
-      <c r="I94" t="n">
-        <v>59839</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-5</v>
       </c>
     </row>
     <row r="95">
@@ -3939,28 +2803,16 @@
         <v>1220</v>
       </c>
       <c r="D95" t="n">
-        <v>10</v>
+        <v>-1.21</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.21</v>
+        <v>1243</v>
       </c>
       <c r="F95" t="n">
-        <v>1243</v>
+        <v>1210.1</v>
       </c>
       <c r="G95" t="n">
-        <v>1210.1</v>
-      </c>
-      <c r="H95" t="n">
         <v>1210.3</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3105</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-15</v>
       </c>
     </row>
     <row r="96">
@@ -3976,28 +2828,16 @@
         <v>1175</v>
       </c>
       <c r="D96" t="n">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="E96" t="n">
-        <v>-2</v>
+        <v>1206</v>
       </c>
       <c r="F96" t="n">
-        <v>1206</v>
+        <v>1175</v>
       </c>
       <c r="G96" t="n">
-        <v>1175</v>
-      </c>
-      <c r="H96" t="n">
         <v>1200</v>
-      </c>
-      <c r="I96" t="n">
-        <v>8975</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-24</v>
       </c>
     </row>
     <row r="97">
@@ -4013,28 +2853,16 @@
         <v>706</v>
       </c>
       <c r="D97" t="n">
-        <v>50</v>
+        <v>-2.75</v>
       </c>
       <c r="E97" t="n">
-        <v>-2.75</v>
+        <v>726</v>
       </c>
       <c r="F97" t="n">
+        <v>704</v>
+      </c>
+      <c r="G97" t="n">
         <v>726</v>
-      </c>
-      <c r="G97" t="n">
-        <v>704</v>
-      </c>
-      <c r="H97" t="n">
-        <v>726</v>
-      </c>
-      <c r="I97" t="n">
-        <v>25923</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="98">
@@ -4050,28 +2878,16 @@
         <v>936.3</v>
       </c>
       <c r="D98" t="n">
-        <v>25</v>
+        <v>1.99</v>
       </c>
       <c r="E98" t="n">
-        <v>1.99</v>
+        <v>936.3</v>
       </c>
       <c r="F98" t="n">
         <v>936.3</v>
       </c>
       <c r="G98" t="n">
         <v>936.3</v>
-      </c>
-      <c r="H98" t="n">
-        <v>936.3</v>
-      </c>
-      <c r="I98" t="n">
-        <v>50</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>18.3</v>
       </c>
     </row>
     <row r="99">
@@ -4087,28 +2903,16 @@
         <v>516</v>
       </c>
       <c r="D99" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="F99" t="n">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="G99" t="n">
-        <v>509</v>
-      </c>
-      <c r="H99" t="n">
         <v>510</v>
-      </c>
-      <c r="I99" t="n">
-        <v>39787</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4124,28 +2928,16 @@
         <v>614</v>
       </c>
       <c r="D100" t="n">
-        <v>40</v>
+        <v>-3.76</v>
       </c>
       <c r="E100" t="n">
-        <v>-3.76</v>
+        <v>650</v>
       </c>
       <c r="F100" t="n">
+        <v>612</v>
+      </c>
+      <c r="G100" t="n">
         <v>650</v>
-      </c>
-      <c r="G100" t="n">
-        <v>612</v>
-      </c>
-      <c r="H100" t="n">
-        <v>650</v>
-      </c>
-      <c r="I100" t="n">
-        <v>26400</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-24</v>
       </c>
     </row>
     <row r="101">
@@ -4161,28 +2953,16 @@
         <v>1449</v>
       </c>
       <c r="D101" t="n">
-        <v>10</v>
+        <v>-2.61</v>
       </c>
       <c r="E101" t="n">
-        <v>-2.61</v>
+        <v>1479</v>
       </c>
       <c r="F101" t="n">
+        <v>1431.4</v>
+      </c>
+      <c r="G101" t="n">
         <v>1479</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1431.4</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1479</v>
-      </c>
-      <c r="I101" t="n">
-        <v>497</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-38.9</v>
       </c>
     </row>
     <row r="102">
@@ -4198,28 +2978,16 @@
         <v>1768</v>
       </c>
       <c r="D102" t="n">
-        <v>10</v>
+        <v>-2.21</v>
       </c>
       <c r="E102" t="n">
-        <v>-2.21</v>
+        <v>1772</v>
       </c>
       <c r="F102" t="n">
-        <v>1772</v>
+        <v>1740</v>
       </c>
       <c r="G102" t="n">
-        <v>1740</v>
-      </c>
-      <c r="H102" t="n">
         <v>1771.9</v>
-      </c>
-      <c r="I102" t="n">
-        <v>467</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-40</v>
       </c>
     </row>
     <row r="103">
@@ -4235,28 +3003,16 @@
         <v>525</v>
       </c>
       <c r="D103" t="n">
-        <v>50</v>
+        <v>-2.42</v>
       </c>
       <c r="E103" t="n">
-        <v>-2.42</v>
+        <v>537</v>
       </c>
       <c r="F103" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="G103" t="n">
-        <v>524</v>
-      </c>
-      <c r="H103" t="n">
         <v>530</v>
-      </c>
-      <c r="I103" t="n">
-        <v>120823</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-13</v>
       </c>
     </row>
     <row r="104">
@@ -4272,28 +3028,16 @@
         <v>1500</v>
       </c>
       <c r="D104" t="n">
-        <v>10</v>
+        <v>-1.32</v>
       </c>
       <c r="E104" t="n">
-        <v>-1.32</v>
+        <v>1500</v>
       </c>
       <c r="F104" t="n">
-        <v>1500</v>
+        <v>1477</v>
       </c>
       <c r="G104" t="n">
-        <v>1477</v>
-      </c>
-      <c r="H104" t="n">
         <v>1489.6</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="105">
@@ -4309,28 +3053,16 @@
         <v>3849</v>
       </c>
       <c r="D105" t="n">
-        <v>15</v>
+        <v>-2.43</v>
       </c>
       <c r="E105" t="n">
-        <v>-2.43</v>
+        <v>3911</v>
       </c>
       <c r="F105" t="n">
+        <v>3842</v>
+      </c>
+      <c r="G105" t="n">
         <v>3911</v>
-      </c>
-      <c r="G105" t="n">
-        <v>3842</v>
-      </c>
-      <c r="H105" t="n">
-        <v>3911</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1128</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-96</v>
       </c>
     </row>
     <row r="106">
@@ -4346,28 +3078,16 @@
         <v>9.130000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>8650</v>
+        <v>-1.83</v>
       </c>
       <c r="E106" t="n">
-        <v>-1.83</v>
+        <v>9.4</v>
       </c>
       <c r="F106" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="G106" t="n">
         <v>9.4</v>
-      </c>
-      <c r="G106" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I106" t="n">
-        <v>21150</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-0.17</v>
       </c>
     </row>
     <row r="107">
@@ -4383,28 +3103,16 @@
         <v>1399</v>
       </c>
       <c r="D107" t="n">
-        <v>10</v>
+        <v>-1.13</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.13</v>
+        <v>1405</v>
       </c>
       <c r="F107" t="n">
+        <v>1386.7</v>
+      </c>
+      <c r="G107" t="n">
         <v>1405</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1386.7</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1405</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3794</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-16</v>
       </c>
     </row>
     <row r="108">
@@ -4420,28 +3128,16 @@
         <v>551.3</v>
       </c>
       <c r="D108" t="n">
-        <v>15</v>
+        <v>-1.55</v>
       </c>
       <c r="E108" t="n">
-        <v>-1.55</v>
+        <v>565</v>
       </c>
       <c r="F108" t="n">
-        <v>565</v>
+        <v>551.2</v>
       </c>
       <c r="G108" t="n">
-        <v>551.2</v>
-      </c>
-      <c r="H108" t="n">
         <v>556</v>
-      </c>
-      <c r="I108" t="n">
-        <v>27432</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4457,28 +3153,16 @@
         <v>439</v>
       </c>
       <c r="D109" t="n">
-        <v>10</v>
+        <v>-0.68</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.68</v>
+        <v>450.8</v>
       </c>
       <c r="F109" t="n">
-        <v>450.8</v>
+        <v>433</v>
       </c>
       <c r="G109" t="n">
-        <v>433</v>
-      </c>
-      <c r="H109" t="n">
         <v>442</v>
-      </c>
-      <c r="I109" t="n">
-        <v>13733</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-3</v>
       </c>
     </row>
     <row r="110">
@@ -4494,28 +3178,16 @@
         <v>1610</v>
       </c>
       <c r="D110" t="n">
-        <v>10</v>
+        <v>-1.53</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.53</v>
+        <v>1644</v>
       </c>
       <c r="F110" t="n">
-        <v>1644</v>
+        <v>1603</v>
       </c>
       <c r="G110" t="n">
-        <v>1603</v>
-      </c>
-      <c r="H110" t="n">
         <v>1620</v>
-      </c>
-      <c r="I110" t="n">
-        <v>276</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-25</v>
       </c>
     </row>
     <row r="111">
@@ -4531,28 +3203,16 @@
         <v>564</v>
       </c>
       <c r="D111" t="n">
-        <v>10</v>
+        <v>-0.55</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.55</v>
+        <v>570</v>
       </c>
       <c r="F111" t="n">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="G111" t="n">
-        <v>555</v>
-      </c>
-      <c r="H111" t="n">
         <v>560</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3790</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-3.1</v>
       </c>
     </row>
     <row r="112">
@@ -4568,28 +3228,16 @@
         <v>1109</v>
       </c>
       <c r="D112" t="n">
-        <v>10</v>
+        <v>-1.16</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.16</v>
+        <v>1130</v>
       </c>
       <c r="F112" t="n">
+        <v>1108.5</v>
+      </c>
+      <c r="G112" t="n">
         <v>1130</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1108.5</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1130</v>
-      </c>
-      <c r="I112" t="n">
-        <v>71516</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-13</v>
       </c>
     </row>
     <row r="113">
@@ -4605,28 +3253,16 @@
         <v>11.2</v>
       </c>
       <c r="D113" t="n">
-        <v>2675</v>
+        <v>-2.61</v>
       </c>
       <c r="E113" t="n">
-        <v>-2.61</v>
+        <v>11.5</v>
       </c>
       <c r="F113" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="G113" t="n">
         <v>11.5</v>
-      </c>
-      <c r="G113" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="H113" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I113" t="n">
-        <v>148295</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-0.3</v>
       </c>
     </row>
     <row r="114">
@@ -4642,28 +3278,16 @@
         <v>9.6</v>
       </c>
       <c r="D114" t="n">
-        <v>100</v>
+        <v>-1.03</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.03</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>9.949999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="H114" t="n">
         <v>9.550000000000001</v>
-      </c>
-      <c r="I114" t="n">
-        <v>75265</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-0.1</v>
       </c>
     </row>
     <row r="115">
@@ -4679,28 +3303,16 @@
         <v>366</v>
       </c>
       <c r="D115" t="n">
-        <v>30</v>
+        <v>-1.21</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.21</v>
+        <v>377.9</v>
       </c>
       <c r="F115" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="G115" t="n">
         <v>377.9</v>
-      </c>
-      <c r="G115" t="n">
-        <v>363.5</v>
-      </c>
-      <c r="H115" t="n">
-        <v>377.9</v>
-      </c>
-      <c r="I115" t="n">
-        <v>71088</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-4.5</v>
       </c>
     </row>
     <row r="116">
@@ -4716,28 +3328,16 @@
         <v>988</v>
       </c>
       <c r="D116" t="n">
-        <v>330</v>
+        <v>-0.7</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.7</v>
+        <v>988</v>
       </c>
       <c r="F116" t="n">
         <v>988</v>
       </c>
       <c r="G116" t="n">
         <v>988</v>
-      </c>
-      <c r="H116" t="n">
-        <v>988</v>
-      </c>
-      <c r="I116" t="n">
-        <v>330</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-7</v>
       </c>
     </row>
     <row r="117">
@@ -4753,28 +3353,16 @@
         <v>862</v>
       </c>
       <c r="D117" t="n">
-        <v>10</v>
+        <v>0.68</v>
       </c>
       <c r="E117" t="n">
-        <v>0.68</v>
+        <v>873</v>
       </c>
       <c r="F117" t="n">
+        <v>862</v>
+      </c>
+      <c r="G117" t="n">
         <v>873</v>
-      </c>
-      <c r="G117" t="n">
-        <v>862</v>
-      </c>
-      <c r="H117" t="n">
-        <v>873</v>
-      </c>
-      <c r="I117" t="n">
-        <v>60</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>5.8</v>
       </c>
     </row>
     <row r="118">
@@ -4790,28 +3378,16 @@
         <v>272.9</v>
       </c>
       <c r="D118" t="n">
-        <v>100</v>
+        <v>-0.04</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.04</v>
+        <v>275</v>
       </c>
       <c r="F118" t="n">
-        <v>275</v>
+        <v>270.1</v>
       </c>
       <c r="G118" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="H118" t="n">
         <v>272</v>
-      </c>
-      <c r="I118" t="n">
-        <v>49734</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-0.1</v>
       </c>
     </row>
     <row r="119">
@@ -4827,28 +3403,16 @@
         <v>10.92</v>
       </c>
       <c r="D119" t="n">
-        <v>3000</v>
+        <v>-2.5</v>
       </c>
       <c r="E119" t="n">
-        <v>-2.5</v>
+        <v>11.2</v>
       </c>
       <c r="F119" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="G119" t="n">
         <v>11.2</v>
-      </c>
-      <c r="G119" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="H119" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>145006</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-0.28</v>
       </c>
     </row>
     <row r="120">
@@ -4864,28 +3428,16 @@
         <v>715</v>
       </c>
       <c r="D120" t="n">
-        <v>500</v>
+        <v>-3.98</v>
       </c>
       <c r="E120" t="n">
-        <v>-3.98</v>
+        <v>750</v>
       </c>
       <c r="F120" t="n">
+        <v>707</v>
+      </c>
+      <c r="G120" t="n">
         <v>750</v>
-      </c>
-      <c r="G120" t="n">
-        <v>707</v>
-      </c>
-      <c r="H120" t="n">
-        <v>750</v>
-      </c>
-      <c r="I120" t="n">
-        <v>40059</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-29.6</v>
       </c>
     </row>
     <row r="121">
@@ -4901,28 +3453,16 @@
         <v>705</v>
       </c>
       <c r="D121" t="n">
-        <v>50</v>
+        <v>-2.76</v>
       </c>
       <c r="E121" t="n">
-        <v>-2.76</v>
+        <v>726</v>
       </c>
       <c r="F121" t="n">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="G121" t="n">
-        <v>700</v>
-      </c>
-      <c r="H121" t="n">
         <v>716</v>
-      </c>
-      <c r="I121" t="n">
-        <v>64146</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="122">
@@ -4938,28 +3478,16 @@
         <v>575</v>
       </c>
       <c r="D122" t="n">
-        <v>35</v>
+        <v>8.08</v>
       </c>
       <c r="E122" t="n">
-        <v>8.08</v>
+        <v>580</v>
       </c>
       <c r="F122" t="n">
-        <v>580</v>
+        <v>515</v>
       </c>
       <c r="G122" t="n">
-        <v>515</v>
-      </c>
-      <c r="H122" t="n">
         <v>540</v>
-      </c>
-      <c r="I122" t="n">
-        <v>234511</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="123">
@@ -4975,28 +3503,16 @@
         <v>412</v>
       </c>
       <c r="D123" t="n">
-        <v>15</v>
+        <v>-1.44</v>
       </c>
       <c r="E123" t="n">
-        <v>-1.44</v>
+        <v>420</v>
       </c>
       <c r="F123" t="n">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G123" t="n">
-        <v>407</v>
-      </c>
-      <c r="H123" t="n">
         <v>418</v>
-      </c>
-      <c r="I123" t="n">
-        <v>582543</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="124">
@@ -5012,28 +3528,16 @@
         <v>10.76</v>
       </c>
       <c r="D124" t="n">
-        <v>3000</v>
+        <v>-0.65</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.65</v>
+        <v>10.94</v>
       </c>
       <c r="F124" t="n">
-        <v>10.94</v>
+        <v>10.73</v>
       </c>
       <c r="G124" t="n">
         <v>10.73</v>
-      </c>
-      <c r="H124" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="I124" t="n">
-        <v>42396</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="125">
@@ -5049,28 +3553,16 @@
         <v>9.42</v>
       </c>
       <c r="D125" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>9.42</v>
       </c>
       <c r="F125" t="n">
-        <v>9.42</v>
+        <v>9.06</v>
       </c>
       <c r="G125" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="H125" t="n">
         <v>9.24</v>
-      </c>
-      <c r="I125" t="n">
-        <v>21700</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5086,28 +3578,16 @@
         <v>853</v>
       </c>
       <c r="D126" t="n">
-        <v>10</v>
+        <v>-0.86</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.86</v>
+        <v>860</v>
       </c>
       <c r="F126" t="n">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="G126" t="n">
-        <v>845</v>
-      </c>
-      <c r="H126" t="n">
         <v>856</v>
-      </c>
-      <c r="I126" t="n">
-        <v>72123</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-7.4</v>
       </c>
     </row>
     <row r="127">
@@ -5123,28 +3603,16 @@
         <v>11.35</v>
       </c>
       <c r="D127" t="n">
-        <v>100</v>
+        <v>-1.99</v>
       </c>
       <c r="E127" t="n">
-        <v>-1.99</v>
+        <v>11.35</v>
       </c>
       <c r="F127" t="n">
         <v>11.35</v>
       </c>
       <c r="G127" t="n">
         <v>11.35</v>
-      </c>
-      <c r="H127" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="I127" t="n">
-        <v>10200</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-0.23</v>
       </c>
     </row>
     <row r="128">
@@ -5160,28 +3628,16 @@
         <v>12.32</v>
       </c>
       <c r="D128" t="n">
-        <v>3600</v>
+        <v>-0.65</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.65</v>
+        <v>12.49</v>
       </c>
       <c r="F128" t="n">
-        <v>12.49</v>
+        <v>12.31</v>
       </c>
       <c r="G128" t="n">
         <v>12.31</v>
-      </c>
-      <c r="H128" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="I128" t="n">
-        <v>11400</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-0.08</v>
       </c>
     </row>
     <row r="129">
@@ -5197,28 +3653,16 @@
         <v>875.4</v>
       </c>
       <c r="D129" t="n">
-        <v>85</v>
+        <v>-3.09</v>
       </c>
       <c r="E129" t="n">
-        <v>-3.09</v>
+        <v>902</v>
       </c>
       <c r="F129" t="n">
+        <v>875.2</v>
+      </c>
+      <c r="G129" t="n">
         <v>902</v>
-      </c>
-      <c r="G129" t="n">
-        <v>875.2</v>
-      </c>
-      <c r="H129" t="n">
-        <v>902</v>
-      </c>
-      <c r="I129" t="n">
-        <v>22468</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-27.9</v>
       </c>
     </row>
     <row r="130">
@@ -5234,28 +3678,16 @@
         <v>1210</v>
       </c>
       <c r="D130" t="n">
-        <v>10</v>
+        <v>-1.47</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.47</v>
+        <v>1225</v>
       </c>
       <c r="F130" t="n">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="G130" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H130" t="n">
         <v>1211</v>
-      </c>
-      <c r="I130" t="n">
-        <v>15362</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-18</v>
       </c>
     </row>
     <row r="131">
@@ -5271,28 +3703,16 @@
         <v>9.23</v>
       </c>
       <c r="D131" t="n">
-        <v>1000</v>
+        <v>1.76</v>
       </c>
       <c r="E131" t="n">
-        <v>1.76</v>
+        <v>9.23</v>
       </c>
       <c r="F131" t="n">
-        <v>9.23</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G131" t="n">
         <v>8.890000000000001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="I131" t="n">
-        <v>13750</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.16</v>
       </c>
     </row>
     <row r="132">
@@ -5308,28 +3728,16 @@
         <v>380</v>
       </c>
       <c r="D132" t="n">
-        <v>100</v>
+        <v>0.93</v>
       </c>
       <c r="E132" t="n">
-        <v>0.93</v>
+        <v>381</v>
       </c>
       <c r="F132" t="n">
-        <v>381</v>
+        <v>365.3</v>
       </c>
       <c r="G132" t="n">
-        <v>365.3</v>
-      </c>
-      <c r="H132" t="n">
         <v>376.5</v>
-      </c>
-      <c r="I132" t="n">
-        <v>261674</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="133">
@@ -5345,28 +3753,16 @@
         <v>1276</v>
       </c>
       <c r="D133" t="n">
-        <v>17</v>
+        <v>-1.77</v>
       </c>
       <c r="E133" t="n">
-        <v>-1.77</v>
+        <v>1295</v>
       </c>
       <c r="F133" t="n">
+        <v>1275</v>
+      </c>
+      <c r="G133" t="n">
         <v>1295</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1275</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1295</v>
-      </c>
-      <c r="I133" t="n">
-        <v>12426</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-23</v>
       </c>
     </row>
     <row r="134">
@@ -5382,28 +3778,16 @@
         <v>1230.3</v>
       </c>
       <c r="D134" t="n">
-        <v>300</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.9399999999999999</v>
+        <v>1250</v>
       </c>
       <c r="F134" t="n">
-        <v>1250</v>
+        <v>1230</v>
       </c>
       <c r="G134" t="n">
         <v>1230</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1230</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5475</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-11.7</v>
       </c>
     </row>
     <row r="135">
@@ -5419,28 +3803,16 @@
         <v>933</v>
       </c>
       <c r="D135" t="n">
-        <v>30</v>
+        <v>-1.48</v>
       </c>
       <c r="E135" t="n">
-        <v>-1.48</v>
+        <v>959</v>
       </c>
       <c r="F135" t="n">
-        <v>959</v>
+        <v>929</v>
       </c>
       <c r="G135" t="n">
-        <v>929</v>
-      </c>
-      <c r="H135" t="n">
         <v>930</v>
-      </c>
-      <c r="I135" t="n">
-        <v>7925</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-14</v>
       </c>
     </row>
     <row r="136">
@@ -5456,28 +3828,16 @@
         <v>1506</v>
       </c>
       <c r="D136" t="n">
-        <v>150</v>
+        <v>-7.61</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.61</v>
+        <v>1597.4</v>
       </c>
       <c r="F136" t="n">
+        <v>1481</v>
+      </c>
+      <c r="G136" t="n">
         <v>1597.4</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1481</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1597.4</v>
-      </c>
-      <c r="I136" t="n">
-        <v>279896</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-124</v>
       </c>
     </row>
     <row r="137">
@@ -5493,28 +3853,16 @@
         <v>1114</v>
       </c>
       <c r="D137" t="n">
-        <v>90</v>
+        <v>-0.09</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.09</v>
+        <v>1134</v>
       </c>
       <c r="F137" t="n">
-        <v>1134</v>
+        <v>1112</v>
       </c>
       <c r="G137" t="n">
-        <v>1112</v>
-      </c>
-      <c r="H137" t="n">
         <v>1115</v>
-      </c>
-      <c r="I137" t="n">
-        <v>38584</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="138">
@@ -5530,28 +3878,16 @@
         <v>342</v>
       </c>
       <c r="D138" t="n">
-        <v>183</v>
+        <v>-1.44</v>
       </c>
       <c r="E138" t="n">
-        <v>-1.44</v>
+        <v>350</v>
       </c>
       <c r="F138" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G138" t="n">
-        <v>340</v>
-      </c>
-      <c r="H138" t="n">
         <v>345</v>
-      </c>
-      <c r="I138" t="n">
-        <v>52586</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-5</v>
       </c>
     </row>
     <row r="139">
@@ -5567,28 +3903,16 @@
         <v>13.43</v>
       </c>
       <c r="D139" t="n">
-        <v>100</v>
+        <v>-0.15</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.15</v>
+        <v>13.43</v>
       </c>
       <c r="F139" t="n">
-        <v>13.43</v>
+        <v>13.19</v>
       </c>
       <c r="G139" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="H139" t="n">
         <v>13.2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>7100</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-0.02</v>
       </c>
     </row>
     <row r="140">
@@ -5604,28 +3928,16 @@
         <v>11.87</v>
       </c>
       <c r="D140" t="n">
-        <v>496</v>
+        <v>-0.25</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.25</v>
+        <v>11.87</v>
       </c>
       <c r="F140" t="n">
-        <v>11.87</v>
+        <v>11.84</v>
       </c>
       <c r="G140" t="n">
         <v>11.84</v>
-      </c>
-      <c r="H140" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2496</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-0.03</v>
       </c>
     </row>
     <row r="141">
@@ -5641,28 +3953,16 @@
         <v>1100</v>
       </c>
       <c r="D141" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="F141" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="G141" t="n">
-        <v>1080</v>
-      </c>
-      <c r="H141" t="n">
         <v>1081</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2617</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5678,28 +3978,16 @@
         <v>2630.5</v>
       </c>
       <c r="D142" t="n">
-        <v>10</v>
+        <v>-1.85</v>
       </c>
       <c r="E142" t="n">
-        <v>-1.85</v>
+        <v>2700</v>
       </c>
       <c r="F142" t="n">
+        <v>2628</v>
+      </c>
+      <c r="G142" t="n">
         <v>2700</v>
-      </c>
-      <c r="G142" t="n">
-        <v>2628</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2700</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2295</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-49.5</v>
       </c>
     </row>
     <row r="143">
@@ -5715,28 +4003,16 @@
         <v>1231</v>
       </c>
       <c r="D143" t="n">
-        <v>140</v>
+        <v>-1.6</v>
       </c>
       <c r="E143" t="n">
-        <v>-1.6</v>
+        <v>1256</v>
       </c>
       <c r="F143" t="n">
-        <v>1256</v>
+        <v>1226.1</v>
       </c>
       <c r="G143" t="n">
-        <v>1226.1</v>
-      </c>
-      <c r="H143" t="n">
         <v>1240</v>
-      </c>
-      <c r="I143" t="n">
-        <v>34087</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="144">
@@ -5752,28 +4028,16 @@
         <v>820</v>
       </c>
       <c r="D144" t="n">
-        <v>50</v>
+        <v>3.8</v>
       </c>
       <c r="E144" t="n">
-        <v>3.8</v>
+        <v>836</v>
       </c>
       <c r="F144" t="n">
-        <v>836</v>
+        <v>780</v>
       </c>
       <c r="G144" t="n">
-        <v>780</v>
-      </c>
-      <c r="H144" t="n">
         <v>798</v>
-      </c>
-      <c r="I144" t="n">
-        <v>120666</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="145">
@@ -5789,28 +4053,16 @@
         <v>1454</v>
       </c>
       <c r="D145" t="n">
-        <v>10</v>
+        <v>-0.35</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.35</v>
+        <v>1460</v>
       </c>
       <c r="F145" t="n">
+        <v>1430</v>
+      </c>
+      <c r="G145" t="n">
         <v>1460</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1430</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1460</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3664</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-5.1</v>
       </c>
     </row>
     <row r="146">
@@ -5826,28 +4078,16 @@
         <v>1540</v>
       </c>
       <c r="D146" t="n">
-        <v>285</v>
+        <v>-1.28</v>
       </c>
       <c r="E146" t="n">
-        <v>-1.28</v>
+        <v>1550</v>
       </c>
       <c r="F146" t="n">
+        <v>1509.5</v>
+      </c>
+      <c r="G146" t="n">
         <v>1550</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1509.5</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1550</v>
-      </c>
-      <c r="I146" t="n">
-        <v>88745</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="147">
@@ -5863,28 +4103,16 @@
         <v>1250.1</v>
       </c>
       <c r="D147" t="n">
-        <v>110</v>
+        <v>-1.57</v>
       </c>
       <c r="E147" t="n">
-        <v>-1.57</v>
+        <v>1272</v>
       </c>
       <c r="F147" t="n">
-        <v>1272</v>
+        <v>1250.1</v>
       </c>
       <c r="G147" t="n">
-        <v>1250.1</v>
-      </c>
-      <c r="H147" t="n">
         <v>1260</v>
-      </c>
-      <c r="I147" t="n">
-        <v>10032</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-19.9</v>
       </c>
     </row>
     <row r="148">
@@ -5900,28 +4128,16 @@
         <v>515</v>
       </c>
       <c r="D148" t="n">
-        <v>10</v>
+        <v>-2.83</v>
       </c>
       <c r="E148" t="n">
-        <v>-2.83</v>
+        <v>527</v>
       </c>
       <c r="F148" t="n">
+        <v>503</v>
+      </c>
+      <c r="G148" t="n">
         <v>527</v>
-      </c>
-      <c r="G148" t="n">
-        <v>503</v>
-      </c>
-      <c r="H148" t="n">
-        <v>527</v>
-      </c>
-      <c r="I148" t="n">
-        <v>34028</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-15</v>
       </c>
     </row>
     <row r="149">
@@ -5937,28 +4153,16 @@
         <v>506</v>
       </c>
       <c r="D149" t="n">
-        <v>10</v>
+        <v>-0.3</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.3</v>
+        <v>508</v>
       </c>
       <c r="F149" t="n">
-        <v>508</v>
+        <v>490.6</v>
       </c>
       <c r="G149" t="n">
-        <v>490.6</v>
-      </c>
-      <c r="H149" t="n">
         <v>499</v>
-      </c>
-      <c r="I149" t="n">
-        <v>8915</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-1.5</v>
       </c>
     </row>
     <row r="150">
@@ -5974,28 +4178,16 @@
         <v>918</v>
       </c>
       <c r="D150" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>918</v>
       </c>
       <c r="F150" t="n">
         <v>918</v>
       </c>
       <c r="G150" t="n">
         <v>918</v>
-      </c>
-      <c r="H150" t="n">
-        <v>918</v>
-      </c>
-      <c r="I150" t="n">
-        <v>50</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="151">
@@ -6011,28 +4203,16 @@
         <v>357</v>
       </c>
       <c r="D151" t="n">
-        <v>53</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.5600000000000001</v>
+        <v>366.1</v>
       </c>
       <c r="F151" t="n">
-        <v>366.1</v>
+        <v>354.1</v>
       </c>
       <c r="G151" t="n">
-        <v>354.1</v>
-      </c>
-      <c r="H151" t="n">
         <v>360</v>
-      </c>
-      <c r="I151" t="n">
-        <v>35819</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-2</v>
       </c>
     </row>
     <row r="152">
@@ -6048,28 +4228,16 @@
         <v>577.1</v>
       </c>
       <c r="D152" t="n">
-        <v>50</v>
+        <v>-3.17</v>
       </c>
       <c r="E152" t="n">
-        <v>-3.17</v>
+        <v>595</v>
       </c>
       <c r="F152" t="n">
-        <v>595</v>
+        <v>577.1</v>
       </c>
       <c r="G152" t="n">
-        <v>577.1</v>
-      </c>
-      <c r="H152" t="n">
         <v>588</v>
-      </c>
-      <c r="I152" t="n">
-        <v>27683</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-18.9</v>
       </c>
     </row>
     <row r="153">
@@ -6085,28 +4253,16 @@
         <v>1014</v>
       </c>
       <c r="D153" t="n">
-        <v>20</v>
+        <v>1.91</v>
       </c>
       <c r="E153" t="n">
-        <v>1.91</v>
+        <v>1014</v>
       </c>
       <c r="F153" t="n">
-        <v>1014</v>
+        <v>975</v>
       </c>
       <c r="G153" t="n">
-        <v>975</v>
-      </c>
-      <c r="H153" t="n">
         <v>999</v>
-      </c>
-      <c r="I153" t="n">
-        <v>9743</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="154">
@@ -6122,28 +4278,16 @@
         <v>753</v>
       </c>
       <c r="D154" t="n">
-        <v>20</v>
+        <v>-0.13</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.13</v>
+        <v>764.7</v>
       </c>
       <c r="F154" t="n">
-        <v>764.7</v>
+        <v>733.1</v>
       </c>
       <c r="G154" t="n">
-        <v>733.1</v>
-      </c>
-      <c r="H154" t="n">
         <v>758</v>
-      </c>
-      <c r="I154" t="n">
-        <v>13195</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -6159,28 +4303,16 @@
         <v>622</v>
       </c>
       <c r="D155" t="n">
-        <v>150</v>
+        <v>-2.8</v>
       </c>
       <c r="E155" t="n">
-        <v>-2.8</v>
+        <v>630</v>
       </c>
       <c r="F155" t="n">
+        <v>620</v>
+      </c>
+      <c r="G155" t="n">
         <v>630</v>
-      </c>
-      <c r="G155" t="n">
-        <v>620</v>
-      </c>
-      <c r="H155" t="n">
-        <v>630</v>
-      </c>
-      <c r="I155" t="n">
-        <v>7779</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-17.9</v>
       </c>
     </row>
     <row r="156">
@@ -6196,28 +4328,16 @@
         <v>777.3</v>
       </c>
       <c r="D156" t="n">
-        <v>10</v>
+        <v>-1.98</v>
       </c>
       <c r="E156" t="n">
-        <v>-1.98</v>
+        <v>790</v>
       </c>
       <c r="F156" t="n">
+        <v>777.3</v>
+      </c>
+      <c r="G156" t="n">
         <v>790</v>
-      </c>
-      <c r="G156" t="n">
-        <v>777.3</v>
-      </c>
-      <c r="H156" t="n">
-        <v>790</v>
-      </c>
-      <c r="I156" t="n">
-        <v>8639</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-15.7</v>
       </c>
     </row>
     <row r="157">
@@ -6233,28 +4353,16 @@
         <v>380</v>
       </c>
       <c r="D157" t="n">
-        <v>30</v>
+        <v>-2.56</v>
       </c>
       <c r="E157" t="n">
-        <v>-2.56</v>
+        <v>390</v>
       </c>
       <c r="F157" t="n">
-        <v>390</v>
+        <v>377.4</v>
       </c>
       <c r="G157" t="n">
-        <v>377.4</v>
-      </c>
-      <c r="H157" t="n">
         <v>383</v>
-      </c>
-      <c r="I157" t="n">
-        <v>34103</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="158">
@@ -6270,28 +4378,16 @@
         <v>535</v>
       </c>
       <c r="D158" t="n">
-        <v>10</v>
+        <v>-1.65</v>
       </c>
       <c r="E158" t="n">
-        <v>-1.65</v>
+        <v>554.8</v>
       </c>
       <c r="F158" t="n">
-        <v>554.8</v>
+        <v>532</v>
       </c>
       <c r="G158" t="n">
-        <v>532</v>
-      </c>
-      <c r="H158" t="n">
         <v>544</v>
-      </c>
-      <c r="I158" t="n">
-        <v>28789</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-9</v>
       </c>
     </row>
     <row r="159">
@@ -6307,28 +4403,16 @@
         <v>864.5</v>
       </c>
       <c r="D159" t="n">
-        <v>21</v>
+        <v>-0.97</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.97</v>
+        <v>877</v>
       </c>
       <c r="F159" t="n">
-        <v>877</v>
+        <v>855.7</v>
       </c>
       <c r="G159" t="n">
-        <v>855.7</v>
-      </c>
-      <c r="H159" t="n">
         <v>866</v>
-      </c>
-      <c r="I159" t="n">
-        <v>12620</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-8.5</v>
       </c>
     </row>
     <row r="160">
@@ -6344,28 +4428,16 @@
         <v>389</v>
       </c>
       <c r="D160" t="n">
-        <v>50</v>
+        <v>-2.51</v>
       </c>
       <c r="E160" t="n">
-        <v>-2.51</v>
+        <v>400.9</v>
       </c>
       <c r="F160" t="n">
-        <v>400.9</v>
+        <v>389</v>
       </c>
       <c r="G160" t="n">
-        <v>389</v>
-      </c>
-      <c r="H160" t="n">
         <v>395</v>
-      </c>
-      <c r="I160" t="n">
-        <v>28414</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="161">
@@ -6381,28 +4453,16 @@
         <v>328</v>
       </c>
       <c r="D161" t="n">
-        <v>440</v>
+        <v>-1.5</v>
       </c>
       <c r="E161" t="n">
-        <v>-1.5</v>
+        <v>333</v>
       </c>
       <c r="F161" t="n">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G161" t="n">
-        <v>327</v>
-      </c>
-      <c r="H161" t="n">
         <v>331.9</v>
-      </c>
-      <c r="I161" t="n">
-        <v>46551</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-5</v>
       </c>
     </row>
     <row r="162">
@@ -6418,28 +4478,16 @@
         <v>9.220000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="F162" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="G162" t="n">
         <v>9.4</v>
-      </c>
-      <c r="G162" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I162" t="n">
-        <v>13041</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -6455,28 +4503,16 @@
         <v>706</v>
       </c>
       <c r="D163" t="n">
-        <v>20</v>
+        <v>-1.53</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.53</v>
+        <v>724</v>
       </c>
       <c r="F163" t="n">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="G163" t="n">
-        <v>702</v>
-      </c>
-      <c r="H163" t="n">
         <v>715</v>
-      </c>
-      <c r="I163" t="n">
-        <v>39558</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-11</v>
       </c>
     </row>
     <row r="164">
@@ -6492,28 +4528,16 @@
         <v>18350</v>
       </c>
       <c r="D164" t="n">
-        <v>20</v>
+        <v>-1.87</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.87</v>
+        <v>18500</v>
       </c>
       <c r="F164" t="n">
+        <v>18204</v>
+      </c>
+      <c r="G164" t="n">
         <v>18500</v>
-      </c>
-      <c r="G164" t="n">
-        <v>18204</v>
-      </c>
-      <c r="H164" t="n">
-        <v>18500</v>
-      </c>
-      <c r="I164" t="n">
-        <v>378</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-350</v>
       </c>
     </row>
     <row r="165">
@@ -6529,28 +4553,16 @@
         <v>16105</v>
       </c>
       <c r="D165" t="n">
-        <v>10</v>
+        <v>-1.8</v>
       </c>
       <c r="E165" t="n">
-        <v>-1.8</v>
+        <v>16105</v>
       </c>
       <c r="F165" t="n">
         <v>16105</v>
       </c>
       <c r="G165" t="n">
         <v>16105</v>
-      </c>
-      <c r="H165" t="n">
-        <v>16105</v>
-      </c>
-      <c r="I165" t="n">
-        <v>10</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-296</v>
       </c>
     </row>
     <row r="166">
@@ -6566,28 +4578,16 @@
         <v>413.2</v>
       </c>
       <c r="D166" t="n">
-        <v>70</v>
+        <v>-1.74</v>
       </c>
       <c r="E166" t="n">
-        <v>-1.74</v>
+        <v>428.9</v>
       </c>
       <c r="F166" t="n">
+        <v>409</v>
+      </c>
+      <c r="G166" t="n">
         <v>428.9</v>
-      </c>
-      <c r="G166" t="n">
-        <v>409</v>
-      </c>
-      <c r="H166" t="n">
-        <v>428.9</v>
-      </c>
-      <c r="I166" t="n">
-        <v>84353</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-7.3</v>
       </c>
     </row>
     <row r="167">
@@ -6603,28 +4603,16 @@
         <v>500</v>
       </c>
       <c r="D167" t="n">
-        <v>100</v>
+        <v>-2.15</v>
       </c>
       <c r="E167" t="n">
-        <v>-2.15</v>
+        <v>510</v>
       </c>
       <c r="F167" t="n">
-        <v>510</v>
+        <v>496.1</v>
       </c>
       <c r="G167" t="n">
-        <v>496.1</v>
-      </c>
-      <c r="H167" t="n">
         <v>500.8</v>
-      </c>
-      <c r="I167" t="n">
-        <v>35135</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-11</v>
       </c>
     </row>
     <row r="168">
@@ -6640,28 +4628,16 @@
         <v>564</v>
       </c>
       <c r="D168" t="n">
-        <v>30</v>
+        <v>-1.74</v>
       </c>
       <c r="E168" t="n">
-        <v>-1.74</v>
+        <v>584</v>
       </c>
       <c r="F168" t="n">
-        <v>584</v>
+        <v>561.6</v>
       </c>
       <c r="G168" t="n">
-        <v>561.6</v>
-      </c>
-      <c r="H168" t="n">
         <v>574</v>
-      </c>
-      <c r="I168" t="n">
-        <v>15468</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="169">
@@ -6677,28 +4653,16 @@
         <v>1246.1</v>
       </c>
       <c r="D169" t="n">
-        <v>290</v>
+        <v>-1.1</v>
       </c>
       <c r="E169" t="n">
-        <v>-1.1</v>
+        <v>1270</v>
       </c>
       <c r="F169" t="n">
-        <v>1270</v>
+        <v>1240</v>
       </c>
       <c r="G169" t="n">
         <v>1240</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1240</v>
-      </c>
-      <c r="I169" t="n">
-        <v>8296</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-13.9</v>
       </c>
     </row>
     <row r="170">
@@ -6714,28 +4678,16 @@
         <v>9.1</v>
       </c>
       <c r="D170" t="n">
-        <v>100</v>
+        <v>-0.66</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.66</v>
+        <v>9.16</v>
       </c>
       <c r="F170" t="n">
-        <v>9.16</v>
+        <v>9</v>
       </c>
       <c r="G170" t="n">
         <v>9</v>
-      </c>
-      <c r="H170" t="n">
-        <v>9</v>
-      </c>
-      <c r="I170" t="n">
-        <v>11050</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-0.06</v>
       </c>
     </row>
     <row r="171">
@@ -6751,28 +4703,16 @@
         <v>768</v>
       </c>
       <c r="D171" t="n">
-        <v>19</v>
+        <v>-1.29</v>
       </c>
       <c r="E171" t="n">
-        <v>-1.29</v>
+        <v>795</v>
       </c>
       <c r="F171" t="n">
-        <v>795</v>
+        <v>768</v>
       </c>
       <c r="G171" t="n">
-        <v>768</v>
-      </c>
-      <c r="H171" t="n">
         <v>772</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4606</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="172">
@@ -6788,28 +4728,16 @@
         <v>1048</v>
       </c>
       <c r="D172" t="n">
-        <v>93</v>
+        <v>-3.68</v>
       </c>
       <c r="E172" t="n">
-        <v>-3.68</v>
+        <v>1088</v>
       </c>
       <c r="F172" t="n">
+        <v>1042.8</v>
+      </c>
+      <c r="G172" t="n">
         <v>1088</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1042.8</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1088</v>
-      </c>
-      <c r="I172" t="n">
-        <v>2947</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-40</v>
       </c>
     </row>
     <row r="173">
@@ -6825,28 +4753,16 @@
         <v>1445</v>
       </c>
       <c r="D173" t="n">
-        <v>147</v>
+        <v>-2.5</v>
       </c>
       <c r="E173" t="n">
-        <v>-2.5</v>
+        <v>1482</v>
       </c>
       <c r="F173" t="n">
+        <v>1424.1</v>
+      </c>
+      <c r="G173" t="n">
         <v>1482</v>
-      </c>
-      <c r="G173" t="n">
-        <v>1424.1</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1482</v>
-      </c>
-      <c r="I173" t="n">
-        <v>920</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-37</v>
       </c>
     </row>
     <row r="174">
@@ -6862,28 +4778,16 @@
         <v>421</v>
       </c>
       <c r="D174" t="n">
-        <v>45</v>
+        <v>-1.41</v>
       </c>
       <c r="E174" t="n">
-        <v>-1.41</v>
+        <v>430</v>
       </c>
       <c r="F174" t="n">
-        <v>430</v>
+        <v>418.8</v>
       </c>
       <c r="G174" t="n">
         <v>418.8</v>
-      </c>
-      <c r="H174" t="n">
-        <v>418.8</v>
-      </c>
-      <c r="I174" t="n">
-        <v>68814</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="175">
@@ -6899,28 +4803,16 @@
         <v>14</v>
       </c>
       <c r="D175" t="n">
-        <v>200</v>
+        <v>-0.5</v>
       </c>
       <c r="E175" t="n">
-        <v>-0.5</v>
+        <v>14.31</v>
       </c>
       <c r="F175" t="n">
-        <v>14.31</v>
+        <v>14</v>
       </c>
       <c r="G175" t="n">
-        <v>14</v>
-      </c>
-      <c r="H175" t="n">
         <v>14.02</v>
-      </c>
-      <c r="I175" t="n">
-        <v>21500</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="176">
@@ -6936,28 +4828,16 @@
         <v>720</v>
       </c>
       <c r="D176" t="n">
-        <v>10</v>
+        <v>2.86</v>
       </c>
       <c r="E176" t="n">
-        <v>2.86</v>
+        <v>734</v>
       </c>
       <c r="F176" t="n">
-        <v>734</v>
+        <v>680</v>
       </c>
       <c r="G176" t="n">
-        <v>680</v>
-      </c>
-      <c r="H176" t="n">
         <v>698</v>
-      </c>
-      <c r="I176" t="n">
-        <v>169085</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="177">
@@ -6973,28 +4853,16 @@
         <v>363</v>
       </c>
       <c r="D177" t="n">
-        <v>660</v>
+        <v>-1.63</v>
       </c>
       <c r="E177" t="n">
-        <v>-1.63</v>
+        <v>368</v>
       </c>
       <c r="F177" t="n">
+        <v>362.6</v>
+      </c>
+      <c r="G177" t="n">
         <v>368</v>
-      </c>
-      <c r="G177" t="n">
-        <v>362.6</v>
-      </c>
-      <c r="H177" t="n">
-        <v>368</v>
-      </c>
-      <c r="I177" t="n">
-        <v>53066</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="178">
@@ -7010,28 +4878,16 @@
         <v>361</v>
       </c>
       <c r="D178" t="n">
-        <v>190</v>
+        <v>-0.55</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.55</v>
+        <v>361</v>
       </c>
       <c r="F178" t="n">
-        <v>361</v>
+        <v>350.1</v>
       </c>
       <c r="G178" t="n">
-        <v>350.1</v>
-      </c>
-      <c r="H178" t="n">
         <v>360</v>
-      </c>
-      <c r="I178" t="n">
-        <v>18230</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-2</v>
       </c>
     </row>
     <row r="179">
@@ -7047,28 +4903,16 @@
         <v>9.15</v>
       </c>
       <c r="D179" t="n">
-        <v>500</v>
+        <v>-0.33</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.33</v>
+        <v>9.25</v>
       </c>
       <c r="F179" t="n">
-        <v>9.25</v>
+        <v>9.06</v>
       </c>
       <c r="G179" t="n">
         <v>9.06</v>
-      </c>
-      <c r="H179" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="I179" t="n">
-        <v>14750</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-0.03</v>
       </c>
     </row>
     <row r="180">
@@ -7084,28 +4928,16 @@
         <v>914</v>
       </c>
       <c r="D180" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="F180" t="n">
         <v>914</v>
       </c>
       <c r="G180" t="n">
         <v>914</v>
-      </c>
-      <c r="H180" t="n">
-        <v>914</v>
-      </c>
-      <c r="I180" t="n">
-        <v>25</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -7121,28 +4953,16 @@
         <v>394</v>
       </c>
       <c r="D181" t="n">
-        <v>10</v>
+        <v>-1.01</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.01</v>
+        <v>394</v>
       </c>
       <c r="F181" t="n">
-        <v>394</v>
+        <v>383.2</v>
       </c>
       <c r="G181" t="n">
-        <v>383.2</v>
-      </c>
-      <c r="H181" t="n">
         <v>392</v>
-      </c>
-      <c r="I181" t="n">
-        <v>10655</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-4</v>
       </c>
     </row>
     <row r="182">
@@ -7158,28 +4978,16 @@
         <v>448.4</v>
       </c>
       <c r="D182" t="n">
-        <v>128</v>
+        <v>-1.45</v>
       </c>
       <c r="E182" t="n">
-        <v>-1.45</v>
+        <v>456.1</v>
       </c>
       <c r="F182" t="n">
+        <v>448.2</v>
+      </c>
+      <c r="G182" t="n">
         <v>456.1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>448.2</v>
-      </c>
-      <c r="H182" t="n">
-        <v>456.1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>37059</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-6.6</v>
       </c>
     </row>
     <row r="183">
@@ -7195,28 +5003,16 @@
         <v>501</v>
       </c>
       <c r="D183" t="n">
-        <v>256</v>
+        <v>-1.4</v>
       </c>
       <c r="E183" t="n">
-        <v>-1.4</v>
+        <v>510</v>
       </c>
       <c r="F183" t="n">
+        <v>500</v>
+      </c>
+      <c r="G183" t="n">
         <v>510</v>
-      </c>
-      <c r="G183" t="n">
-        <v>500</v>
-      </c>
-      <c r="H183" t="n">
-        <v>510</v>
-      </c>
-      <c r="I183" t="n">
-        <v>25412</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-7.1</v>
       </c>
     </row>
     <row r="184">
@@ -7232,28 +5028,16 @@
         <v>1389</v>
       </c>
       <c r="D184" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="E184" t="n">
-        <v>-1</v>
+        <v>1403.1</v>
       </c>
       <c r="F184" t="n">
+        <v>1381</v>
+      </c>
+      <c r="G184" t="n">
         <v>1403.1</v>
-      </c>
-      <c r="G184" t="n">
-        <v>1381</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1403.1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>4884</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-14.1</v>
       </c>
     </row>
     <row r="185">
@@ -7269,28 +5053,16 @@
         <v>11.38</v>
       </c>
       <c r="D185" t="n">
-        <v>2000</v>
+        <v>-0.35</v>
       </c>
       <c r="E185" t="n">
-        <v>-0.35</v>
+        <v>11.38</v>
       </c>
       <c r="F185" t="n">
-        <v>11.38</v>
+        <v>11.27</v>
       </c>
       <c r="G185" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="H185" t="n">
         <v>11.37</v>
-      </c>
-      <c r="I185" t="n">
-        <v>192600</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-0.04</v>
       </c>
     </row>
     <row r="186">
@@ -7306,28 +5078,16 @@
         <v>398.1</v>
       </c>
       <c r="D186" t="n">
-        <v>25</v>
+        <v>-2.45</v>
       </c>
       <c r="E186" t="n">
-        <v>-2.45</v>
+        <v>411</v>
       </c>
       <c r="F186" t="n">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G186" t="n">
-        <v>397</v>
-      </c>
-      <c r="H186" t="n">
         <v>408</v>
-      </c>
-      <c r="I186" t="n">
-        <v>21192</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="187">
@@ -7343,28 +5103,16 @@
         <v>12.23</v>
       </c>
       <c r="D187" t="n">
-        <v>5000</v>
+        <v>0.66</v>
       </c>
       <c r="E187" t="n">
-        <v>0.66</v>
+        <v>12.25</v>
       </c>
       <c r="F187" t="n">
-        <v>12.25</v>
+        <v>12.01</v>
       </c>
       <c r="G187" t="n">
         <v>12.01</v>
-      </c>
-      <c r="H187" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="I187" t="n">
-        <v>92430</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.08</v>
       </c>
     </row>
     <row r="188">
@@ -7380,28 +5128,16 @@
         <v>643</v>
       </c>
       <c r="D188" t="n">
-        <v>85</v>
+        <v>-3.02</v>
       </c>
       <c r="E188" t="n">
-        <v>-3.02</v>
+        <v>653</v>
       </c>
       <c r="F188" t="n">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="G188" t="n">
-        <v>640</v>
-      </c>
-      <c r="H188" t="n">
         <v>650</v>
-      </c>
-      <c r="I188" t="n">
-        <v>6270</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="189">
@@ -7417,28 +5153,16 @@
         <v>503</v>
       </c>
       <c r="D189" t="n">
-        <v>10</v>
+        <v>-4.01</v>
       </c>
       <c r="E189" t="n">
-        <v>-4.01</v>
+        <v>518</v>
       </c>
       <c r="F189" t="n">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="G189" t="n">
-        <v>498</v>
-      </c>
-      <c r="H189" t="n">
         <v>514</v>
-      </c>
-      <c r="I189" t="n">
-        <v>36232</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-21</v>
       </c>
     </row>
     <row r="190">
@@ -7454,28 +5178,16 @@
         <v>436</v>
       </c>
       <c r="D190" t="n">
-        <v>100</v>
+        <v>-1.8</v>
       </c>
       <c r="E190" t="n">
-        <v>-1.8</v>
+        <v>447</v>
       </c>
       <c r="F190" t="n">
-        <v>447</v>
+        <v>435.3</v>
       </c>
       <c r="G190" t="n">
-        <v>435.3</v>
-      </c>
-      <c r="H190" t="n">
         <v>439</v>
-      </c>
-      <c r="I190" t="n">
-        <v>42340</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-8</v>
       </c>
     </row>
     <row r="191">
@@ -7491,28 +5203,16 @@
         <v>1471</v>
       </c>
       <c r="D191" t="n">
-        <v>50</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E191" t="n">
-        <v>0.07000000000000001</v>
+        <v>1498</v>
       </c>
       <c r="F191" t="n">
-        <v>1498</v>
+        <v>1459</v>
       </c>
       <c r="G191" t="n">
-        <v>1459</v>
-      </c>
-      <c r="H191" t="n">
         <v>1470</v>
-      </c>
-      <c r="I191" t="n">
-        <v>20436</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0</v>
-      </c>
-      <c r="K191" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -7528,28 +5228,16 @@
         <v>223</v>
       </c>
       <c r="D192" t="n">
-        <v>100</v>
+        <v>-0.45</v>
       </c>
       <c r="E192" t="n">
-        <v>-0.45</v>
+        <v>224</v>
       </c>
       <c r="F192" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G192" t="n">
-        <v>220</v>
-      </c>
-      <c r="H192" t="n">
         <v>222</v>
-      </c>
-      <c r="I192" t="n">
-        <v>24312</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -7565,28 +5253,16 @@
         <v>459</v>
       </c>
       <c r="D193" t="n">
-        <v>170</v>
+        <v>0.88</v>
       </c>
       <c r="E193" t="n">
-        <v>0.88</v>
+        <v>466</v>
       </c>
       <c r="F193" t="n">
-        <v>466</v>
+        <v>450.5</v>
       </c>
       <c r="G193" t="n">
-        <v>450.5</v>
-      </c>
-      <c r="H193" t="n">
         <v>464</v>
-      </c>
-      <c r="I193" t="n">
-        <v>230508</v>
-      </c>
-      <c r="J193" t="n">
-        <v>0</v>
-      </c>
-      <c r="K193" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="194">
@@ -7602,28 +5278,16 @@
         <v>1370</v>
       </c>
       <c r="D194" t="n">
-        <v>500</v>
+        <v>-0.72</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.72</v>
+        <v>1390</v>
       </c>
       <c r="F194" t="n">
-        <v>1390</v>
+        <v>1345</v>
       </c>
       <c r="G194" t="n">
-        <v>1345</v>
-      </c>
-      <c r="H194" t="n">
         <v>1360</v>
-      </c>
-      <c r="I194" t="n">
-        <v>5818</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0</v>
-      </c>
-      <c r="K194" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="195">
@@ -7639,28 +5303,16 @@
         <v>1600</v>
       </c>
       <c r="D195" t="n">
-        <v>37</v>
+        <v>3.17</v>
       </c>
       <c r="E195" t="n">
-        <v>3.17</v>
+        <v>1650</v>
       </c>
       <c r="F195" t="n">
-        <v>1650</v>
+        <v>1581.7</v>
       </c>
       <c r="G195" t="n">
         <v>1581.7</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1581.7</v>
-      </c>
-      <c r="I195" t="n">
-        <v>87486</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K195" t="n">
-        <v>49.23</v>
       </c>
     </row>
     <row r="196">
@@ -7676,28 +5328,16 @@
         <v>465</v>
       </c>
       <c r="D196" t="n">
-        <v>280</v>
+        <v>-2.72</v>
       </c>
       <c r="E196" t="n">
-        <v>-2.72</v>
+        <v>490</v>
       </c>
       <c r="F196" t="n">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="G196" t="n">
-        <v>465</v>
-      </c>
-      <c r="H196" t="n">
         <v>476</v>
-      </c>
-      <c r="I196" t="n">
-        <v>21993</v>
-      </c>
-      <c r="J196" t="n">
-        <v>0</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-13</v>
       </c>
     </row>
     <row r="197">
@@ -7713,28 +5353,16 @@
         <v>11.66</v>
       </c>
       <c r="D197" t="n">
-        <v>4900</v>
+        <v>0.43</v>
       </c>
       <c r="E197" t="n">
-        <v>0.43</v>
+        <v>11.66</v>
       </c>
       <c r="F197" t="n">
-        <v>11.66</v>
+        <v>11.42</v>
       </c>
       <c r="G197" t="n">
         <v>11.42</v>
-      </c>
-      <c r="H197" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="I197" t="n">
-        <v>6100</v>
-      </c>
-      <c r="J197" t="n">
-        <v>0</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="198">
@@ -7750,28 +5378,16 @@
         <v>1000</v>
       </c>
       <c r="D198" t="n">
-        <v>29</v>
+        <v>-1.77</v>
       </c>
       <c r="E198" t="n">
-        <v>-1.77</v>
+        <v>1018</v>
       </c>
       <c r="F198" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="G198" t="n">
         <v>1018</v>
-      </c>
-      <c r="G198" t="n">
-        <v>997.7</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1018</v>
-      </c>
-      <c r="I198" t="n">
-        <v>13861</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-18</v>
       </c>
     </row>
     <row r="199">
@@ -7787,28 +5403,16 @@
         <v>420</v>
       </c>
       <c r="D199" t="n">
-        <v>10</v>
+        <v>-2.33</v>
       </c>
       <c r="E199" t="n">
-        <v>-2.33</v>
+        <v>432</v>
       </c>
       <c r="F199" t="n">
-        <v>432</v>
+        <v>415.5</v>
       </c>
       <c r="G199" t="n">
-        <v>415.5</v>
-      </c>
-      <c r="H199" t="n">
         <v>423</v>
-      </c>
-      <c r="I199" t="n">
-        <v>16986</v>
-      </c>
-      <c r="J199" t="n">
-        <v>0</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="200">
@@ -7824,28 +5428,16 @@
         <v>408.1</v>
       </c>
       <c r="D200" t="n">
-        <v>20</v>
+        <v>-2.13</v>
       </c>
       <c r="E200" t="n">
-        <v>-2.13</v>
+        <v>425.3</v>
       </c>
       <c r="F200" t="n">
+        <v>407</v>
+      </c>
+      <c r="G200" t="n">
         <v>425.3</v>
-      </c>
-      <c r="G200" t="n">
-        <v>407</v>
-      </c>
-      <c r="H200" t="n">
-        <v>425.3</v>
-      </c>
-      <c r="I200" t="n">
-        <v>37289</v>
-      </c>
-      <c r="J200" t="n">
-        <v>0</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-8.9</v>
       </c>
     </row>
     <row r="201">
@@ -7861,28 +5453,16 @@
         <v>1375</v>
       </c>
       <c r="D201" t="n">
-        <v>15</v>
+        <v>-0.44</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.44</v>
+        <v>1400</v>
       </c>
       <c r="F201" t="n">
-        <v>1400</v>
+        <v>1353.5</v>
       </c>
       <c r="G201" t="n">
         <v>1353.5</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1353.5</v>
-      </c>
-      <c r="I201" t="n">
-        <v>4144</v>
-      </c>
-      <c r="J201" t="n">
-        <v>0</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-6.1</v>
       </c>
     </row>
     <row r="202">
@@ -7898,28 +5478,16 @@
         <v>1135</v>
       </c>
       <c r="D202" t="n">
-        <v>20</v>
+        <v>-2.07</v>
       </c>
       <c r="E202" t="n">
-        <v>-2.07</v>
+        <v>1146</v>
       </c>
       <c r="F202" t="n">
-        <v>1146</v>
+        <v>1120</v>
       </c>
       <c r="G202" t="n">
-        <v>1120</v>
-      </c>
-      <c r="H202" t="n">
         <v>1139</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3091</v>
-      </c>
-      <c r="J202" t="n">
-        <v>0</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-24</v>
       </c>
     </row>
     <row r="203">
@@ -7935,28 +5503,16 @@
         <v>1380</v>
       </c>
       <c r="D203" t="n">
-        <v>10</v>
+        <v>-0.79</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.79</v>
+        <v>1400</v>
       </c>
       <c r="F203" t="n">
-        <v>1400</v>
+        <v>1364</v>
       </c>
       <c r="G203" t="n">
-        <v>1364</v>
-      </c>
-      <c r="H203" t="n">
         <v>1380</v>
-      </c>
-      <c r="I203" t="n">
-        <v>823</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-11</v>
       </c>
     </row>
     <row r="204">
@@ -7972,28 +5528,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="D204" t="n">
-        <v>100</v>
+        <v>-0.11</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.11</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F204" t="n">
-        <v>9.279999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="G204" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H204" t="n">
         <v>9.220000000000001</v>
-      </c>
-      <c r="I204" t="n">
-        <v>15600</v>
-      </c>
-      <c r="J204" t="n">
-        <v>0</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-0.01</v>
       </c>
     </row>
     <row r="205">
@@ -8009,28 +5553,16 @@
         <v>573.1</v>
       </c>
       <c r="D205" t="n">
-        <v>10</v>
+        <v>-0.68</v>
       </c>
       <c r="E205" t="n">
-        <v>-0.68</v>
+        <v>580</v>
       </c>
       <c r="F205" t="n">
-        <v>580</v>
+        <v>565.5</v>
       </c>
       <c r="G205" t="n">
         <v>565.5</v>
-      </c>
-      <c r="H205" t="n">
-        <v>565.5</v>
-      </c>
-      <c r="I205" t="n">
-        <v>17750</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0</v>
-      </c>
-      <c r="K205" t="n">
-        <v>-3.9</v>
       </c>
     </row>
     <row r="206">
@@ -8046,28 +5578,16 @@
         <v>791.1</v>
       </c>
       <c r="D206" t="n">
-        <v>348</v>
+        <v>-2.81</v>
       </c>
       <c r="E206" t="n">
-        <v>-2.81</v>
+        <v>819</v>
       </c>
       <c r="F206" t="n">
-        <v>819</v>
+        <v>782</v>
       </c>
       <c r="G206" t="n">
-        <v>782</v>
-      </c>
-      <c r="H206" t="n">
         <v>811</v>
-      </c>
-      <c r="I206" t="n">
-        <v>16944</v>
-      </c>
-      <c r="J206" t="n">
-        <v>0</v>
-      </c>
-      <c r="K206" t="n">
-        <v>-22.9</v>
       </c>
     </row>
     <row r="207">
@@ -8083,28 +5603,16 @@
         <v>1205.9</v>
       </c>
       <c r="D207" t="n">
-        <v>15</v>
+        <v>-1.56</v>
       </c>
       <c r="E207" t="n">
-        <v>-1.56</v>
+        <v>1211</v>
       </c>
       <c r="F207" t="n">
-        <v>1211</v>
+        <v>1179</v>
       </c>
       <c r="G207" t="n">
-        <v>1179</v>
-      </c>
-      <c r="H207" t="n">
         <v>1203</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1495</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0</v>
-      </c>
-      <c r="K207" t="n">
-        <v>-19.1</v>
       </c>
     </row>
     <row r="208">
@@ -8120,28 +5628,16 @@
         <v>2020</v>
       </c>
       <c r="D208" t="n">
-        <v>16</v>
+        <v>1.5</v>
       </c>
       <c r="E208" t="n">
-        <v>1.5</v>
+        <v>2025</v>
       </c>
       <c r="F208" t="n">
-        <v>2025</v>
+        <v>1880</v>
       </c>
       <c r="G208" t="n">
-        <v>1880</v>
-      </c>
-      <c r="H208" t="n">
         <v>1951</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1145</v>
-      </c>
-      <c r="J208" t="n">
-        <v>0</v>
-      </c>
-      <c r="K208" t="n">
-        <v>29.9</v>
       </c>
     </row>
     <row r="209">
@@ -8157,28 +5653,16 @@
         <v>1895</v>
       </c>
       <c r="D209" t="n">
-        <v>100</v>
+        <v>-2.82</v>
       </c>
       <c r="E209" t="n">
-        <v>-2.82</v>
+        <v>1920</v>
       </c>
       <c r="F209" t="n">
-        <v>1920</v>
+        <v>1885</v>
       </c>
       <c r="G209" t="n">
-        <v>1885</v>
-      </c>
-      <c r="H209" t="n">
         <v>1919</v>
-      </c>
-      <c r="I209" t="n">
-        <v>894</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0</v>
-      </c>
-      <c r="K209" t="n">
-        <v>-55</v>
       </c>
     </row>
     <row r="210">
@@ -8194,28 +5678,16 @@
         <v>1232</v>
       </c>
       <c r="D210" t="n">
-        <v>50</v>
+        <v>-0.73</v>
       </c>
       <c r="E210" t="n">
-        <v>-0.73</v>
+        <v>1235</v>
       </c>
       <c r="F210" t="n">
-        <v>1235</v>
+        <v>1210</v>
       </c>
       <c r="G210" t="n">
-        <v>1210</v>
-      </c>
-      <c r="H210" t="n">
         <v>1220</v>
-      </c>
-      <c r="I210" t="n">
-        <v>938</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-9</v>
       </c>
     </row>
     <row r="211">
@@ -8231,28 +5703,16 @@
         <v>678.9</v>
       </c>
       <c r="D211" t="n">
-        <v>10</v>
+        <v>0.43</v>
       </c>
       <c r="E211" t="n">
-        <v>0.43</v>
+        <v>682</v>
       </c>
       <c r="F211" t="n">
-        <v>682</v>
+        <v>655.1</v>
       </c>
       <c r="G211" t="n">
-        <v>655.1</v>
-      </c>
-      <c r="H211" t="n">
         <v>663</v>
-      </c>
-      <c r="I211" t="n">
-        <v>5574</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0</v>
-      </c>
-      <c r="K211" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="212">
@@ -8268,28 +5728,16 @@
         <v>529.9</v>
       </c>
       <c r="D212" t="n">
-        <v>70</v>
+        <v>1.9</v>
       </c>
       <c r="E212" t="n">
-        <v>1.9</v>
+        <v>534</v>
       </c>
       <c r="F212" t="n">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="G212" t="n">
-        <v>510</v>
-      </c>
-      <c r="H212" t="n">
         <v>520</v>
-      </c>
-      <c r="I212" t="n">
-        <v>290432</v>
-      </c>
-      <c r="J212" t="n">
-        <v>0</v>
-      </c>
-      <c r="K212" t="n">
-        <v>9.9</v>
       </c>
     </row>
     <row r="213">
@@ -8305,28 +5753,16 @@
         <v>284</v>
       </c>
       <c r="D213" t="n">
-        <v>148</v>
+        <v>-1.11</v>
       </c>
       <c r="E213" t="n">
-        <v>-1.11</v>
+        <v>288.9</v>
       </c>
       <c r="F213" t="n">
+        <v>281.1</v>
+      </c>
+      <c r="G213" t="n">
         <v>288.9</v>
-      </c>
-      <c r="G213" t="n">
-        <v>281.1</v>
-      </c>
-      <c r="H213" t="n">
-        <v>288.9</v>
-      </c>
-      <c r="I213" t="n">
-        <v>22615</v>
-      </c>
-      <c r="J213" t="n">
-        <v>0</v>
-      </c>
-      <c r="K213" t="n">
-        <v>-3.2</v>
       </c>
     </row>
     <row r="214">
@@ -8342,28 +5778,16 @@
         <v>392</v>
       </c>
       <c r="D214" t="n">
-        <v>250</v>
+        <v>1.32</v>
       </c>
       <c r="E214" t="n">
-        <v>1.32</v>
+        <v>392.7</v>
       </c>
       <c r="F214" t="n">
-        <v>392.7</v>
+        <v>375</v>
       </c>
       <c r="G214" t="n">
-        <v>375</v>
-      </c>
-      <c r="H214" t="n">
         <v>380</v>
-      </c>
-      <c r="I214" t="n">
-        <v>99641</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0</v>
-      </c>
-      <c r="K214" t="n">
-        <v>5.1</v>
       </c>
     </row>
     <row r="215">
@@ -8379,28 +5803,16 @@
         <v>6470</v>
       </c>
       <c r="D215" t="n">
-        <v>20</v>
+        <v>-1.61</v>
       </c>
       <c r="E215" t="n">
-        <v>-1.61</v>
+        <v>6600</v>
       </c>
       <c r="F215" t="n">
-        <v>6600</v>
+        <v>6452</v>
       </c>
       <c r="G215" t="n">
-        <v>6452</v>
-      </c>
-      <c r="H215" t="n">
         <v>6576</v>
-      </c>
-      <c r="I215" t="n">
-        <v>942</v>
-      </c>
-      <c r="J215" t="n">
-        <v>0</v>
-      </c>
-      <c r="K215" t="n">
-        <v>-106</v>
       </c>
     </row>
     <row r="216">
@@ -8416,28 +5828,16 @@
         <v>1329.1</v>
       </c>
       <c r="D216" t="n">
-        <v>150</v>
+        <v>-1.71</v>
       </c>
       <c r="E216" t="n">
-        <v>-1.71</v>
+        <v>1352</v>
       </c>
       <c r="F216" t="n">
-        <v>1352</v>
+        <v>1326</v>
       </c>
       <c r="G216" t="n">
         <v>1326</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1326</v>
-      </c>
-      <c r="I216" t="n">
-        <v>3118</v>
-      </c>
-      <c r="J216" t="n">
-        <v>0</v>
-      </c>
-      <c r="K216" t="n">
-        <v>-23.1</v>
       </c>
     </row>
     <row r="217">
@@ -8453,28 +5853,16 @@
         <v>607</v>
       </c>
       <c r="D217" t="n">
-        <v>10</v>
+        <v>-4.41</v>
       </c>
       <c r="E217" t="n">
-        <v>-4.41</v>
+        <v>635</v>
       </c>
       <c r="F217" t="n">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="G217" t="n">
-        <v>605</v>
-      </c>
-      <c r="H217" t="n">
         <v>630</v>
-      </c>
-      <c r="I217" t="n">
-        <v>13698</v>
-      </c>
-      <c r="J217" t="n">
-        <v>0</v>
-      </c>
-      <c r="K217" t="n">
-        <v>-28</v>
       </c>
     </row>
     <row r="218">
@@ -8490,28 +5878,16 @@
         <v>370.7</v>
       </c>
       <c r="D218" t="n">
-        <v>100</v>
+        <v>-0.88</v>
       </c>
       <c r="E218" t="n">
-        <v>-0.88</v>
+        <v>375.9</v>
       </c>
       <c r="F218" t="n">
-        <v>375.9</v>
+        <v>370</v>
       </c>
       <c r="G218" t="n">
-        <v>370</v>
-      </c>
-      <c r="H218" t="n">
         <v>374</v>
-      </c>
-      <c r="I218" t="n">
-        <v>7425</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0</v>
-      </c>
-      <c r="K218" t="n">
-        <v>-3.3</v>
       </c>
     </row>
     <row r="219">
@@ -8527,28 +5903,16 @@
         <v>707.5</v>
       </c>
       <c r="D219" t="n">
-        <v>370</v>
+        <v>-2.82</v>
       </c>
       <c r="E219" t="n">
-        <v>-2.82</v>
+        <v>716</v>
       </c>
       <c r="F219" t="n">
+        <v>707.1</v>
+      </c>
+      <c r="G219" t="n">
         <v>716</v>
-      </c>
-      <c r="G219" t="n">
-        <v>707.1</v>
-      </c>
-      <c r="H219" t="n">
-        <v>716</v>
-      </c>
-      <c r="I219" t="n">
-        <v>15926</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0</v>
-      </c>
-      <c r="K219" t="n">
-        <v>-20.5</v>
       </c>
     </row>
     <row r="220">
@@ -8564,28 +5928,16 @@
         <v>715</v>
       </c>
       <c r="D220" t="n">
-        <v>50</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E220" t="n">
-        <v>-0.6899999999999999</v>
+        <v>724</v>
       </c>
       <c r="F220" t="n">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="G220" t="n">
-        <v>707</v>
-      </c>
-      <c r="H220" t="n">
         <v>718</v>
-      </c>
-      <c r="I220" t="n">
-        <v>45891</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0</v>
-      </c>
-      <c r="K220" t="n">
-        <v>-5</v>
       </c>
     </row>
     <row r="221">
@@ -8601,28 +5953,16 @@
         <v>424</v>
       </c>
       <c r="D221" t="n">
-        <v>260</v>
+        <v>-2.97</v>
       </c>
       <c r="E221" t="n">
-        <v>-2.97</v>
+        <v>445.7</v>
       </c>
       <c r="F221" t="n">
+        <v>423.7</v>
+      </c>
+      <c r="G221" t="n">
         <v>445.7</v>
-      </c>
-      <c r="G221" t="n">
-        <v>423.7</v>
-      </c>
-      <c r="H221" t="n">
-        <v>445.7</v>
-      </c>
-      <c r="I221" t="n">
-        <v>103168</v>
-      </c>
-      <c r="J221" t="n">
-        <v>0</v>
-      </c>
-      <c r="K221" t="n">
-        <v>-13</v>
       </c>
     </row>
     <row r="222">
@@ -8638,28 +5978,16 @@
         <v>640</v>
       </c>
       <c r="D222" t="n">
-        <v>20</v>
+        <v>-3.03</v>
       </c>
       <c r="E222" t="n">
-        <v>-3.03</v>
+        <v>646.8</v>
       </c>
       <c r="F222" t="n">
+        <v>620</v>
+      </c>
+      <c r="G222" t="n">
         <v>646.8</v>
-      </c>
-      <c r="G222" t="n">
-        <v>620</v>
-      </c>
-      <c r="H222" t="n">
-        <v>646.8</v>
-      </c>
-      <c r="I222" t="n">
-        <v>30913</v>
-      </c>
-      <c r="J222" t="n">
-        <v>0</v>
-      </c>
-      <c r="K222" t="n">
-        <v>-20</v>
       </c>
     </row>
     <row r="223">
@@ -8675,28 +6003,16 @@
         <v>399</v>
       </c>
       <c r="D223" t="n">
-        <v>30</v>
+        <v>-2.21</v>
       </c>
       <c r="E223" t="n">
-        <v>-2.21</v>
+        <v>405.1</v>
       </c>
       <c r="F223" t="n">
-        <v>405.1</v>
+        <v>391</v>
       </c>
       <c r="G223" t="n">
-        <v>391</v>
-      </c>
-      <c r="H223" t="n">
         <v>402</v>
-      </c>
-      <c r="I223" t="n">
-        <v>31548</v>
-      </c>
-      <c r="J223" t="n">
-        <v>0</v>
-      </c>
-      <c r="K223" t="n">
-        <v>-9</v>
       </c>
     </row>
     <row r="224">
@@ -8712,28 +6028,16 @@
         <v>19002</v>
       </c>
       <c r="D224" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>19050</v>
       </c>
       <c r="F224" t="n">
+        <v>19002</v>
+      </c>
+      <c r="G224" t="n">
         <v>19050</v>
-      </c>
-      <c r="G224" t="n">
-        <v>19002</v>
-      </c>
-      <c r="H224" t="n">
-        <v>19050</v>
-      </c>
-      <c r="I224" t="n">
-        <v>20</v>
-      </c>
-      <c r="J224" t="n">
-        <v>0</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -8749,28 +6053,16 @@
         <v>403.5</v>
       </c>
       <c r="D225" t="n">
-        <v>10</v>
+        <v>-3.47</v>
       </c>
       <c r="E225" t="n">
-        <v>-3.47</v>
+        <v>419</v>
       </c>
       <c r="F225" t="n">
+        <v>401.6</v>
+      </c>
+      <c r="G225" t="n">
         <v>419</v>
-      </c>
-      <c r="G225" t="n">
-        <v>401.6</v>
-      </c>
-      <c r="H225" t="n">
-        <v>419</v>
-      </c>
-      <c r="I225" t="n">
-        <v>102658</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0</v>
-      </c>
-      <c r="K225" t="n">
-        <v>-14.5</v>
       </c>
     </row>
     <row r="226">
@@ -8786,28 +6078,16 @@
         <v>744</v>
       </c>
       <c r="D226" t="n">
-        <v>10</v>
+        <v>-0.92</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.92</v>
+        <v>768</v>
       </c>
       <c r="F226" t="n">
-        <v>768</v>
+        <v>738.1</v>
       </c>
       <c r="G226" t="n">
-        <v>738.1</v>
-      </c>
-      <c r="H226" t="n">
         <v>740</v>
-      </c>
-      <c r="I226" t="n">
-        <v>300362</v>
-      </c>
-      <c r="J226" t="n">
-        <v>0</v>
-      </c>
-      <c r="K226" t="n">
-        <v>-6.9</v>
       </c>
     </row>
     <row r="227">
@@ -8823,28 +6103,16 @@
         <v>1605</v>
       </c>
       <c r="D227" t="n">
-        <v>16</v>
+        <v>-1.89</v>
       </c>
       <c r="E227" t="n">
-        <v>-1.89</v>
+        <v>1630</v>
       </c>
       <c r="F227" t="n">
-        <v>1630</v>
+        <v>1605</v>
       </c>
       <c r="G227" t="n">
-        <v>1605</v>
-      </c>
-      <c r="H227" t="n">
         <v>1625</v>
-      </c>
-      <c r="I227" t="n">
-        <v>525</v>
-      </c>
-      <c r="J227" t="n">
-        <v>0</v>
-      </c>
-      <c r="K227" t="n">
-        <v>-31</v>
       </c>
     </row>
     <row r="228">
@@ -8860,28 +6128,16 @@
         <v>1360</v>
       </c>
       <c r="D228" t="n">
-        <v>10</v>
+        <v>-2.51</v>
       </c>
       <c r="E228" t="n">
-        <v>-2.51</v>
+        <v>1375</v>
       </c>
       <c r="F228" t="n">
-        <v>1375</v>
+        <v>1337</v>
       </c>
       <c r="G228" t="n">
-        <v>1337</v>
-      </c>
-      <c r="H228" t="n">
         <v>1371</v>
-      </c>
-      <c r="I228" t="n">
-        <v>2320</v>
-      </c>
-      <c r="J228" t="n">
-        <v>0</v>
-      </c>
-      <c r="K228" t="n">
-        <v>-35</v>
       </c>
     </row>
     <row r="229">
@@ -8897,28 +6153,16 @@
         <v>1763.3</v>
       </c>
       <c r="D229" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="E229" t="n">
-        <v>-10</v>
+        <v>2090</v>
       </c>
       <c r="F229" t="n">
-        <v>2090</v>
+        <v>1763.3</v>
       </c>
       <c r="G229" t="n">
-        <v>1763.3</v>
-      </c>
-      <c r="H229" t="n">
         <v>1998.3</v>
-      </c>
-      <c r="I229" t="n">
-        <v>20169</v>
-      </c>
-      <c r="J229" t="n">
-        <v>0</v>
-      </c>
-      <c r="K229" t="n">
-        <v>-195.9</v>
       </c>
     </row>
   </sheetData>
